--- a/Beam_specifications.xlsx
+++ b/Beam_specifications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliecarey/Documents/GitHub/DP5_Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E42E0A-8FC7-D54B-9D59-7FDB4DDB4060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747E4354-22F3-C44E-840A-231A858B8C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="27520" windowHeight="16940" xr2:uid="{FE6E7D45-D27E-9547-9645-A7EB7BB78B66}"/>
   </bookViews>
@@ -44,19 +44,19 @@
     <t>Mass per meter (kg/m)</t>
   </si>
   <si>
-    <t>Depth (mm)</t>
-  </si>
-  <si>
-    <t>Width (mm)</t>
-  </si>
-  <si>
-    <t>Thickness (mm)</t>
-  </si>
-  <si>
     <t>SMoA x-x (cm^4)</t>
   </si>
   <si>
     <t>SMoA y-y (cm^4)</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>thickness</t>
   </si>
 </sst>
 </file>
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8EBE64-A297-CE44-820C-4C5B43359327}">
   <dimension ref="A2:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="M118" sqref="M118"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -449,19 +449,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2489,6 +2489,9 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>89</v>
+      </c>
       <c r="B91">
         <v>262</v>
       </c>
@@ -2509,6 +2512,9 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>90</v>
+      </c>
       <c r="B92">
         <v>285</v>
       </c>
@@ -2529,6 +2535,9 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>91</v>
+      </c>
       <c r="B93">
         <v>307</v>
       </c>
@@ -2549,6 +2558,9 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>92</v>
+      </c>
       <c r="B94">
         <v>341</v>
       </c>
@@ -2569,6 +2581,9 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>93</v>
+      </c>
       <c r="B95">
         <v>372</v>
       </c>
@@ -2589,6 +2604,9 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>94</v>
+      </c>
       <c r="B96">
         <v>125.2</v>
       </c>
@@ -2608,7 +2626,10 @@
         <v>4385</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>95</v>
+      </c>
       <c r="B97">
         <v>140.1</v>
       </c>
@@ -2628,7 +2649,10 @@
         <v>5186</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>96</v>
+      </c>
       <c r="B98">
         <v>152.4</v>
       </c>
@@ -2648,7 +2672,10 @@
         <v>5786</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>97</v>
+      </c>
       <c r="B99">
         <v>170.2</v>
       </c>
@@ -2668,7 +2695,10 @@
         <v>6633</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>98</v>
+      </c>
       <c r="B100">
         <v>192.6</v>
       </c>
@@ -2688,7 +2718,10 @@
         <v>7646</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>99</v>
+      </c>
       <c r="B101">
         <v>133.9</v>
       </c>
@@ -2708,7 +2741,10 @@
         <v>4790</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>100</v>
+      </c>
       <c r="B102">
         <v>146.9</v>
       </c>
@@ -2728,7 +2764,10 @@
         <v>5457</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>101</v>
+      </c>
       <c r="B103">
         <v>161</v>
       </c>
@@ -2748,7 +2787,10 @@
         <v>6075</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>102</v>
+      </c>
       <c r="B104">
         <v>173</v>
       </c>
@@ -2768,7 +2810,10 @@
         <v>6852</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>103</v>
+      </c>
       <c r="B105">
         <v>185</v>
       </c>
@@ -2788,7 +2833,10 @@
         <v>7512</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>104</v>
+      </c>
       <c r="B106">
         <v>196.8</v>
       </c>
@@ -2808,7 +2856,10 @@
         <v>8177</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>105</v>
+      </c>
       <c r="B107">
         <v>175.9</v>
       </c>
@@ -2828,7 +2879,10 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>106</v>
+      </c>
       <c r="B108">
         <v>193.8</v>
       </c>
@@ -2848,7 +2902,10 @@
         <v>9068</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>107</v>
+      </c>
       <c r="B109">
         <v>210</v>
       </c>
@@ -2868,7 +2925,10 @@
         <v>10259</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>108</v>
+      </c>
       <c r="B110">
         <v>226.5</v>
       </c>
@@ -2888,7 +2948,10 @@
         <v>11361</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>109</v>
+      </c>
       <c r="B111">
         <v>250.7</v>
       </c>
@@ -2908,7 +2971,10 @@
         <v>12916</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>110</v>
+      </c>
       <c r="B112">
         <v>200.9</v>
       </c>
@@ -2928,7 +2994,10 @@
         <v>9423</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>111</v>
+      </c>
       <c r="B113">
         <v>224.2</v>
       </c>
@@ -2948,7 +3017,10 @@
         <v>11236</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>112</v>
+      </c>
       <c r="B114">
         <v>238.3</v>
       </c>
@@ -2968,7 +3040,10 @@
         <v>12285</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>113</v>
+      </c>
       <c r="B115">
         <v>253.4</v>
       </c>
@@ -2988,7 +3063,10 @@
         <v>13301</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>114</v>
+      </c>
       <c r="B116">
         <v>271</v>
       </c>
@@ -3008,7 +3086,10 @@
         <v>14518</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>115</v>
+      </c>
       <c r="B117">
         <v>289.10000000000002</v>
       </c>
@@ -3028,7 +3109,10 @@
         <v>15597</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>116</v>
+      </c>
       <c r="B118">
         <v>313</v>
       </c>
@@ -3048,7 +3132,10 @@
         <v>17039</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>117</v>
+      </c>
       <c r="B119">
         <v>345.1</v>
       </c>
@@ -3068,7 +3155,10 @@
         <v>19515</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>118</v>
+      </c>
       <c r="B120">
         <v>381.5</v>
       </c>
@@ -3088,7 +3178,10 @@
         <v>21975</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>119</v>
+      </c>
       <c r="B121">
         <v>343.3</v>
       </c>
@@ -3108,7 +3201,10 @@
         <v>39156</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>120</v>
+      </c>
       <c r="B122">
         <v>365</v>
       </c>
@@ -3128,7 +3224,10 @@
         <v>42245</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>121</v>
+      </c>
       <c r="B123">
         <v>388</v>
       </c>
@@ -3148,7 +3247,10 @@
         <v>45438</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>122</v>
+      </c>
       <c r="B124">
         <v>222</v>
       </c>
@@ -3168,7 +3270,10 @@
         <v>9546</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>123</v>
+      </c>
       <c r="B125">
         <v>248.7</v>
       </c>
@@ -3188,7 +3293,10 @@
         <v>11754</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>124</v>
+      </c>
       <c r="B126">
         <v>272.3</v>
       </c>
@@ -3208,7 +3316,10 @@
         <v>14004</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>125</v>
+      </c>
       <c r="B127">
         <v>314.3</v>
       </c>
@@ -3228,7 +3339,10 @@
         <v>16232</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>126</v>
+      </c>
       <c r="B128">
         <v>349.4</v>
       </c>
@@ -3248,7 +3362,10 @@
         <v>18460</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>127</v>
+      </c>
       <c r="B129">
         <v>392.7</v>
       </c>
@@ -3268,7 +3385,10 @@
         <v>20496</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>128</v>
+      </c>
       <c r="B130">
         <v>437</v>
       </c>
@@ -3288,7 +3408,10 @@
         <v>23447</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>129</v>
+      </c>
       <c r="B131">
         <v>486.7</v>
       </c>

--- a/Beam_specifications.xlsx
+++ b/Beam_specifications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliecarey/Documents/GitHub/DP5_Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747E4354-22F3-C44E-840A-231A858B8C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A95C75-CE14-1E46-B8C1-FB20B4D6D834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="27520" windowHeight="16940" xr2:uid="{FE6E7D45-D27E-9547-9645-A7EB7BB78B66}"/>
+    <workbookView xWindow="360" yWindow="500" windowWidth="27520" windowHeight="16940" xr2:uid="{FE6E7D45-D27E-9547-9645-A7EB7BB78B66}"/>
   </bookViews>
   <sheets>
     <sheet name="I-beam" sheetId="1" r:id="rId1"/>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8EBE64-A297-CE44-820C-4C5B43359327}">
-  <dimension ref="A2:G131"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -441,2844 +441,2867 @@
     <col min="6" max="7" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>127</v>
+      </c>
+      <c r="D2">
+        <v>76</v>
+      </c>
+      <c r="E2">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
+      <c r="F2">
+        <v>473</v>
+      </c>
+      <c r="G2">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>127</v>
+        <v>152.4</v>
       </c>
       <c r="D3">
-        <v>76</v>
+        <v>88.7</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F3">
-        <v>473</v>
+        <v>834</v>
       </c>
       <c r="G3">
-        <v>56</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>152.4</v>
+        <v>177.8</v>
       </c>
       <c r="D4">
-        <v>88.7</v>
+        <v>101.2</v>
       </c>
       <c r="E4">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="F4">
-        <v>834</v>
+        <v>1356</v>
       </c>
       <c r="G4">
-        <v>90</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>23.1</v>
       </c>
       <c r="C5">
-        <v>177.8</v>
+        <v>203.2</v>
       </c>
       <c r="D5">
-        <v>101.2</v>
+        <v>101.8</v>
       </c>
       <c r="E5">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="F5">
-        <v>1356</v>
+        <v>2105</v>
       </c>
       <c r="G5">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>23.1</v>
+        <v>25.1</v>
       </c>
       <c r="C6">
         <v>203.2</v>
       </c>
       <c r="D6">
-        <v>101.8</v>
+        <v>133.19999999999999</v>
       </c>
       <c r="E6">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="F6">
-        <v>2105</v>
+        <v>2340</v>
       </c>
       <c r="G6">
-        <v>164</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>25.1</v>
+        <v>30</v>
       </c>
       <c r="C7">
-        <v>203.2</v>
+        <v>206.8</v>
       </c>
       <c r="D7">
-        <v>133.19999999999999</v>
+        <v>133.9</v>
       </c>
       <c r="E7">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="F7">
-        <v>2340</v>
+        <v>2896</v>
       </c>
       <c r="G7">
-        <v>308</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>206.8</v>
+        <v>254</v>
       </c>
       <c r="D8">
-        <v>133.9</v>
+        <v>101.6</v>
       </c>
       <c r="E8">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="F8">
-        <v>2896</v>
+        <v>2841</v>
       </c>
       <c r="G8">
-        <v>385</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>22</v>
+        <v>25.2</v>
       </c>
       <c r="C9">
-        <v>254</v>
+        <v>257.2</v>
       </c>
       <c r="D9">
-        <v>101.6</v>
+        <v>101.9</v>
       </c>
       <c r="E9">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="F9">
-        <v>2841</v>
+        <v>3415</v>
       </c>
       <c r="G9">
-        <v>119</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>25.2</v>
+        <v>28.3</v>
       </c>
       <c r="C10">
-        <v>257.2</v>
+        <v>260.39999999999998</v>
       </c>
       <c r="D10">
-        <v>101.9</v>
+        <v>102.2</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="F10">
-        <v>3415</v>
+        <v>4005</v>
       </c>
       <c r="G10">
-        <v>149</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>28.3</v>
+        <v>31.1</v>
       </c>
       <c r="C11">
-        <v>260.39999999999998</v>
+        <v>251.4</v>
       </c>
       <c r="D11">
-        <v>102.2</v>
+        <v>146.1</v>
       </c>
       <c r="E11">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>4005</v>
+        <v>4413</v>
       </c>
       <c r="G11">
-        <v>179</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>31.1</v>
+        <v>37</v>
       </c>
       <c r="C12">
-        <v>251.4</v>
+        <v>256</v>
       </c>
       <c r="D12">
-        <v>146.1</v>
+        <v>146.4</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="F12">
-        <v>4413</v>
+        <v>5537</v>
       </c>
       <c r="G12">
-        <v>448</v>
+        <v>571</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C13">
-        <v>256</v>
+        <v>259.60000000000002</v>
       </c>
       <c r="D13">
-        <v>146.4</v>
+        <v>147.30000000000001</v>
       </c>
       <c r="E13">
-        <v>6.3</v>
+        <v>7.2</v>
       </c>
       <c r="F13">
-        <v>5537</v>
+        <v>6544</v>
       </c>
       <c r="G13">
-        <v>571</v>
+        <v>677</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>43</v>
+        <v>24.8</v>
       </c>
       <c r="C14">
-        <v>259.60000000000002</v>
+        <v>305.10000000000002</v>
       </c>
       <c r="D14">
-        <v>147.30000000000001</v>
+        <v>101.6</v>
       </c>
       <c r="E14">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="F14">
-        <v>6544</v>
+        <v>4455</v>
       </c>
       <c r="G14">
-        <v>677</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>24.8</v>
+        <v>28.2</v>
       </c>
       <c r="C15">
-        <v>305.10000000000002</v>
+        <v>308.7</v>
       </c>
       <c r="D15">
-        <v>101.6</v>
+        <v>101.8</v>
       </c>
       <c r="E15">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="F15">
-        <v>4455</v>
+        <v>5366</v>
       </c>
       <c r="G15">
-        <v>123</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>28.2</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="C16">
-        <v>308.7</v>
+        <v>312.7</v>
       </c>
       <c r="D16">
-        <v>101.8</v>
+        <v>102.4</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="F16">
-        <v>5366</v>
+        <v>6501</v>
       </c>
       <c r="G16">
-        <v>155</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>32.799999999999997</v>
+        <v>37</v>
       </c>
       <c r="C17">
-        <v>312.7</v>
+        <v>304.39999999999998</v>
       </c>
       <c r="D17">
-        <v>102.4</v>
+        <v>123.4</v>
       </c>
       <c r="E17">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="F17">
-        <v>6501</v>
+        <v>7171</v>
       </c>
       <c r="G17">
-        <v>194</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>37</v>
+        <v>41.9</v>
       </c>
       <c r="C18">
-        <v>304.39999999999998</v>
+        <v>307.2</v>
       </c>
       <c r="D18">
-        <v>123.4</v>
+        <v>124.3</v>
       </c>
       <c r="E18">
-        <v>7.1</v>
+        <v>8</v>
       </c>
       <c r="F18">
-        <v>7171</v>
+        <v>8196</v>
       </c>
       <c r="G18">
-        <v>336</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>41.9</v>
+        <v>48.1</v>
       </c>
       <c r="C19">
-        <v>307.2</v>
+        <v>311</v>
       </c>
       <c r="D19">
-        <v>124.3</v>
+        <v>125.3</v>
       </c>
       <c r="E19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F19">
-        <v>8196</v>
+        <v>9575</v>
       </c>
       <c r="G19">
-        <v>389</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>48.1</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="C20">
-        <v>311</v>
+        <v>303.39999999999998</v>
       </c>
       <c r="D20">
-        <v>125.3</v>
+        <v>165</v>
       </c>
       <c r="E20">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F20">
-        <v>9575</v>
+        <v>8503</v>
       </c>
       <c r="G20">
-        <v>461</v>
+        <v>764</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>40.299999999999997</v>
+        <v>46.1</v>
       </c>
       <c r="C21">
-        <v>303.39999999999998</v>
+        <v>306.60000000000002</v>
       </c>
       <c r="D21">
-        <v>165</v>
+        <v>165.7</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="F21">
-        <v>8503</v>
+        <v>9899</v>
       </c>
       <c r="G21">
-        <v>764</v>
+        <v>896</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>46.1</v>
+        <v>54</v>
       </c>
       <c r="C22">
-        <v>306.60000000000002</v>
+        <v>310.39999999999998</v>
       </c>
       <c r="D22">
-        <v>165.7</v>
+        <v>166.9</v>
       </c>
       <c r="E22">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="F22">
-        <v>9899</v>
+        <v>11696</v>
       </c>
       <c r="G22">
-        <v>896</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C23">
-        <v>310.39999999999998</v>
+        <v>351.4</v>
       </c>
       <c r="D23">
-        <v>166.9</v>
+        <v>171.11</v>
       </c>
       <c r="E23">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="F23">
-        <v>11696</v>
+        <v>12195</v>
       </c>
       <c r="G23">
-        <v>1063</v>
+        <v>811</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C24">
-        <v>351.4</v>
+        <v>355</v>
       </c>
       <c r="D24">
-        <v>171.11</v>
+        <v>171.5</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="F24">
-        <v>12195</v>
+        <v>14265</v>
       </c>
       <c r="G24">
-        <v>811</v>
+        <v>969</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C25">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D25">
-        <v>171.5</v>
+        <v>172.2</v>
       </c>
       <c r="E25">
-        <v>7.4</v>
+        <v>8.1</v>
       </c>
       <c r="F25">
-        <v>14265</v>
+        <v>16168</v>
       </c>
       <c r="G25">
-        <v>969</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>57</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="C26">
-        <v>358</v>
+        <v>363.4</v>
       </c>
       <c r="D26">
-        <v>172.2</v>
+        <v>173.2</v>
       </c>
       <c r="E26">
-        <v>8.1</v>
+        <v>9.1</v>
       </c>
       <c r="F26">
-        <v>16168</v>
+        <v>19592</v>
       </c>
       <c r="G26">
-        <v>1109</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>67.099999999999994</v>
+        <v>39</v>
       </c>
       <c r="C27">
-        <v>363.4</v>
+        <v>398</v>
       </c>
       <c r="D27">
-        <v>173.2</v>
+        <v>141.80000000000001</v>
       </c>
       <c r="E27">
-        <v>9.1</v>
+        <v>6.4</v>
       </c>
       <c r="F27">
-        <v>19592</v>
+        <v>12679</v>
       </c>
       <c r="G27">
-        <v>1362</v>
+        <v>410</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C28">
-        <v>398</v>
+        <v>403.2</v>
       </c>
       <c r="D28">
-        <v>141.80000000000001</v>
+        <v>142.19999999999999</v>
       </c>
       <c r="E28">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="F28">
-        <v>12679</v>
+        <v>15856</v>
       </c>
       <c r="G28">
-        <v>410</v>
+        <v>538</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>46</v>
+        <v>53.3</v>
       </c>
       <c r="C29">
-        <v>403.2</v>
+        <v>406.6</v>
       </c>
       <c r="D29">
-        <v>142.19999999999999</v>
+        <v>143.30000000000001</v>
       </c>
       <c r="E29">
-        <v>6.8</v>
+        <v>7.9</v>
       </c>
       <c r="F29">
-        <v>15856</v>
+        <v>18454</v>
       </c>
       <c r="G29">
-        <v>538</v>
+        <v>635</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>53.3</v>
+        <v>54.1</v>
       </c>
       <c r="C30">
-        <v>406.6</v>
+        <v>402.6</v>
       </c>
       <c r="D30">
-        <v>143.30000000000001</v>
+        <v>177.7</v>
       </c>
       <c r="E30">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="F30">
-        <v>18454</v>
+        <v>18893</v>
       </c>
       <c r="G30">
-        <v>635</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>54.1</v>
+        <v>60.1</v>
       </c>
       <c r="C31">
-        <v>402.6</v>
+        <v>406.4</v>
       </c>
       <c r="D31">
-        <v>177.7</v>
+        <v>177.9</v>
       </c>
       <c r="E31">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="F31">
-        <v>18893</v>
+        <v>21767</v>
       </c>
       <c r="G31">
-        <v>1011</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>60.1</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="C32">
-        <v>406.4</v>
+        <v>409.4</v>
       </c>
       <c r="D32">
-        <v>177.9</v>
+        <v>178.8</v>
       </c>
       <c r="E32">
-        <v>7.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F32">
-        <v>21767</v>
+        <v>24502</v>
       </c>
       <c r="G32">
-        <v>1203</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>67.099999999999994</v>
+        <v>74.2</v>
       </c>
       <c r="C33">
-        <v>409.4</v>
+        <v>412.8</v>
       </c>
       <c r="D33">
-        <v>178.8</v>
+        <v>179.5</v>
       </c>
       <c r="E33">
-        <v>8.8000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="F33">
-        <v>24502</v>
+        <v>27481</v>
       </c>
       <c r="G33">
-        <v>1365</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>74.2</v>
+        <v>85.3</v>
       </c>
       <c r="C34">
-        <v>412.8</v>
+        <v>417.2</v>
       </c>
       <c r="D34">
-        <v>179.5</v>
+        <v>181.8</v>
       </c>
       <c r="E34">
-        <v>9.5</v>
+        <v>10.9</v>
       </c>
       <c r="F34">
-        <v>27481</v>
+        <v>31874</v>
       </c>
       <c r="G34">
-        <v>1546</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>85.3</v>
+        <v>52.3</v>
       </c>
       <c r="C35">
-        <v>417.2</v>
+        <v>449.8</v>
       </c>
       <c r="D35">
-        <v>181.8</v>
+        <v>152.4</v>
       </c>
       <c r="E35">
-        <v>10.9</v>
+        <v>7.6</v>
       </c>
       <c r="F35">
-        <v>31874</v>
+        <v>21586</v>
       </c>
       <c r="G35">
-        <v>1831</v>
+        <v>645</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>52.3</v>
+        <v>59.8</v>
       </c>
       <c r="C36">
-        <v>449.8</v>
+        <v>454.6</v>
       </c>
       <c r="D36">
-        <v>152.4</v>
+        <v>152.9</v>
       </c>
       <c r="E36">
-        <v>7.6</v>
+        <v>8.1</v>
       </c>
       <c r="F36">
-        <v>21586</v>
+        <v>25717</v>
       </c>
       <c r="G36">
-        <v>645</v>
+        <v>795</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>59.8</v>
+        <v>67.2</v>
       </c>
       <c r="C37">
-        <v>454.6</v>
+        <v>458</v>
       </c>
       <c r="D37">
-        <v>152.9</v>
+        <v>153.80000000000001</v>
       </c>
       <c r="E37">
-        <v>8.1</v>
+        <v>9</v>
       </c>
       <c r="F37">
-        <v>25717</v>
+        <v>29144</v>
       </c>
       <c r="G37">
-        <v>795</v>
+        <v>913</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>67.2</v>
+        <v>74.2</v>
       </c>
       <c r="C38">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D38">
-        <v>153.80000000000001</v>
+        <v>154.4</v>
       </c>
       <c r="E38">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="F38">
-        <v>29144</v>
+        <v>32891</v>
       </c>
       <c r="G38">
-        <v>913</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>74.2</v>
+        <v>82.1</v>
       </c>
       <c r="C39">
-        <v>462</v>
+        <v>465.8</v>
       </c>
       <c r="D39">
-        <v>154.4</v>
+        <v>155.30000000000001</v>
       </c>
       <c r="E39">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="F39">
-        <v>32891</v>
+        <v>36806</v>
       </c>
       <c r="G39">
-        <v>1047</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>82.1</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="C40">
-        <v>465.8</v>
+        <v>453.4</v>
       </c>
       <c r="D40">
-        <v>155.30000000000001</v>
+        <v>189.9</v>
       </c>
       <c r="E40">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="F40">
-        <v>36806</v>
+        <v>29597</v>
       </c>
       <c r="G40">
-        <v>1185</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>67.099999999999994</v>
+        <v>74.3</v>
       </c>
       <c r="C41">
-        <v>453.4</v>
+        <v>457</v>
       </c>
       <c r="D41">
-        <v>189.9</v>
+        <v>190.4</v>
       </c>
       <c r="E41">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="F41">
-        <v>29597</v>
+        <v>33536</v>
       </c>
       <c r="G41">
-        <v>1452</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>74.3</v>
+        <v>82</v>
       </c>
       <c r="C42">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D42">
-        <v>190.4</v>
+        <v>191.3</v>
       </c>
       <c r="E42">
-        <v>9</v>
+        <v>9.9</v>
       </c>
       <c r="F42">
-        <v>33536</v>
+        <v>37268</v>
       </c>
       <c r="G42">
-        <v>1672</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>82</v>
+        <v>89.3</v>
       </c>
       <c r="C43">
-        <v>460</v>
+        <v>463.4</v>
       </c>
       <c r="D43">
-        <v>191.3</v>
+        <v>191.9</v>
       </c>
       <c r="E43">
-        <v>9.9</v>
+        <v>10.5</v>
       </c>
       <c r="F43">
-        <v>37268</v>
+        <v>41232</v>
       </c>
       <c r="G43">
-        <v>1871</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>89.3</v>
+        <v>98.3</v>
       </c>
       <c r="C44">
-        <v>463.4</v>
+        <v>467.2</v>
       </c>
       <c r="D44">
-        <v>191.9</v>
+        <v>192.8</v>
       </c>
       <c r="E44">
-        <v>10.5</v>
+        <v>11.4</v>
       </c>
       <c r="F44">
-        <v>41232</v>
+        <v>459944</v>
       </c>
       <c r="G44">
-        <v>2090</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>98.3</v>
+        <v>105.8</v>
       </c>
       <c r="C45">
-        <v>467.2</v>
+        <v>469.2</v>
       </c>
       <c r="D45">
-        <v>192.8</v>
+        <v>194</v>
       </c>
       <c r="E45">
-        <v>11.4</v>
+        <v>12.6</v>
       </c>
       <c r="F45">
-        <v>459944</v>
+        <v>49090</v>
       </c>
       <c r="G45">
-        <v>2348</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>105.8</v>
+        <v>133.30000000000001</v>
       </c>
       <c r="C46">
-        <v>469.2</v>
+        <v>480.6</v>
       </c>
       <c r="D46">
-        <v>194</v>
+        <v>196.7</v>
       </c>
       <c r="E46">
-        <v>12.6</v>
+        <v>15.3</v>
       </c>
       <c r="F46">
-        <v>49090</v>
+        <v>64058</v>
       </c>
       <c r="G46">
-        <v>2515</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>133.30000000000001</v>
+        <v>161.4</v>
       </c>
       <c r="C47">
-        <v>480.6</v>
+        <v>492</v>
       </c>
       <c r="D47">
-        <v>196.7</v>
+        <v>199.4</v>
       </c>
       <c r="E47">
-        <v>15.3</v>
+        <v>18</v>
       </c>
       <c r="F47">
-        <v>64058</v>
+        <v>7996</v>
       </c>
       <c r="G47">
-        <v>3350</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>161.4</v>
+        <v>113</v>
       </c>
       <c r="C48">
-        <v>492</v>
+        <v>463</v>
       </c>
       <c r="D48">
-        <v>199.4</v>
+        <v>280</v>
       </c>
       <c r="E48">
-        <v>18</v>
+        <v>10.8</v>
       </c>
       <c r="F48">
-        <v>7996</v>
+        <v>56724</v>
       </c>
       <c r="G48">
-        <v>4251</v>
+        <v>6338</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C49">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="D49">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E49">
-        <v>10.8</v>
+        <v>12.2</v>
       </c>
       <c r="F49">
-        <v>56724</v>
+        <v>64820</v>
       </c>
       <c r="G49">
-        <v>6338</v>
+        <v>7337</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C50">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="D50">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E50">
-        <v>12.2</v>
+        <v>13.6</v>
       </c>
       <c r="F50">
-        <v>64820</v>
+        <v>73727</v>
       </c>
       <c r="G50">
-        <v>7337</v>
+        <v>8362</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="C51">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D51">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E51">
-        <v>13.6</v>
+        <v>15</v>
       </c>
       <c r="F51">
-        <v>73727</v>
+        <v>80756</v>
       </c>
       <c r="G51">
-        <v>8362</v>
+        <v>9142</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="C52">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="D52">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E52">
-        <v>15</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="F52">
-        <v>80756</v>
+        <v>92134</v>
       </c>
       <c r="G52">
-        <v>9142</v>
+        <v>10511</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="C53">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="D53">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E53">
-        <v>16.600000000000001</v>
+        <v>17</v>
       </c>
       <c r="F53">
-        <v>92134</v>
+        <v>103476</v>
       </c>
       <c r="G53">
-        <v>10511</v>
+        <v>11545</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="C54">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="D54">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E54">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="F54">
-        <v>103476</v>
+        <v>115446</v>
       </c>
       <c r="G54">
-        <v>11545</v>
+        <v>12954</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="C55">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="D55">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E55">
-        <v>18.5</v>
+        <v>20.6</v>
       </c>
       <c r="F55">
-        <v>115446</v>
+        <v>128452</v>
       </c>
       <c r="G55">
-        <v>12954</v>
+        <v>14459</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="C56">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="D56">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E56">
-        <v>20.6</v>
+        <v>22.6</v>
       </c>
       <c r="F56">
-        <v>128452</v>
+        <v>144803</v>
       </c>
       <c r="G56">
-        <v>14459</v>
+        <v>16306</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="C57">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="D57">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E57">
-        <v>22.6</v>
+        <v>24.4</v>
       </c>
       <c r="F57">
-        <v>144803</v>
+        <v>162187</v>
       </c>
       <c r="G57">
-        <v>16306</v>
+        <v>18297</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="C58">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="D58">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E58">
-        <v>24.4</v>
+        <v>26.9</v>
       </c>
       <c r="F58">
-        <v>162187</v>
+        <v>180967</v>
       </c>
       <c r="G58">
-        <v>18297</v>
+        <v>20414</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>315</v>
+        <v>65.7</v>
       </c>
       <c r="C59">
-        <v>525</v>
+        <v>524.70000000000005</v>
       </c>
       <c r="D59">
-        <v>293</v>
+        <v>165.1</v>
       </c>
       <c r="E59">
-        <v>26.9</v>
+        <v>8.9</v>
       </c>
       <c r="F59">
-        <v>180967</v>
+        <v>35028</v>
       </c>
       <c r="G59">
-        <v>20414</v>
+        <v>859</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>65.7</v>
+        <v>74.7</v>
       </c>
       <c r="C60">
-        <v>524.70000000000005</v>
+        <v>529.1</v>
       </c>
       <c r="D60">
-        <v>165.1</v>
+        <v>165.9</v>
       </c>
       <c r="E60">
-        <v>8.9</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F60">
-        <v>35028</v>
+        <v>41058</v>
       </c>
       <c r="G60">
-        <v>859</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61">
-        <v>74.7</v>
+        <v>84.8</v>
       </c>
       <c r="C61">
-        <v>529.1</v>
+        <v>534.9</v>
       </c>
       <c r="D61">
-        <v>165.9</v>
+        <v>166.5</v>
       </c>
       <c r="E61">
-        <v>9.6999999999999993</v>
+        <v>10.3</v>
       </c>
       <c r="F61">
-        <v>41058</v>
+        <v>48631</v>
       </c>
       <c r="G61">
-        <v>1040</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>84.8</v>
+        <v>82.2</v>
       </c>
       <c r="C62">
-        <v>534.9</v>
+        <v>528.29999999999995</v>
       </c>
       <c r="D62">
-        <v>166.5</v>
+        <v>208.8</v>
       </c>
       <c r="E62">
-        <v>10.3</v>
+        <v>9.6</v>
       </c>
       <c r="F62">
-        <v>48631</v>
+        <v>47539</v>
       </c>
       <c r="G62">
-        <v>1275</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>82.2</v>
+        <v>92.1</v>
       </c>
       <c r="C63">
-        <v>528.29999999999995</v>
+        <v>533.1</v>
       </c>
       <c r="D63">
-        <v>208.8</v>
+        <v>209.3</v>
       </c>
       <c r="E63">
-        <v>9.6</v>
+        <v>10.1</v>
       </c>
       <c r="F63">
-        <v>47539</v>
+        <v>55227</v>
       </c>
       <c r="G63">
-        <v>2007</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64">
-        <v>92.1</v>
+        <v>101</v>
       </c>
       <c r="C64">
-        <v>533.1</v>
+        <v>536.70000000000005</v>
       </c>
       <c r="D64">
-        <v>209.3</v>
+        <v>210</v>
       </c>
       <c r="E64">
-        <v>10.1</v>
+        <v>10.8</v>
       </c>
       <c r="F64">
-        <v>55227</v>
+        <v>61519</v>
       </c>
       <c r="G64">
-        <v>2389</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C65">
-        <v>536.70000000000005</v>
+        <v>539.5</v>
       </c>
       <c r="D65">
-        <v>210</v>
+        <v>210.8</v>
       </c>
       <c r="E65">
-        <v>10.8</v>
+        <v>11.6</v>
       </c>
       <c r="F65">
-        <v>61519</v>
+        <v>66822</v>
       </c>
       <c r="G65">
-        <v>2692</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C66">
-        <v>539.5</v>
+        <v>544.5</v>
       </c>
       <c r="D66">
-        <v>210.8</v>
+        <v>211.9</v>
       </c>
       <c r="E66">
-        <v>11.6</v>
+        <v>12.7</v>
       </c>
       <c r="F66">
-        <v>66822</v>
+        <v>76043</v>
       </c>
       <c r="G66">
-        <v>2943</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67">
-        <v>122</v>
+        <v>138.30000000000001</v>
       </c>
       <c r="C67">
-        <v>544.5</v>
+        <v>549.1</v>
       </c>
       <c r="D67">
-        <v>211.9</v>
+        <v>213.9</v>
       </c>
       <c r="E67">
-        <v>12.7</v>
+        <v>14.7</v>
       </c>
       <c r="F67">
-        <v>76043</v>
+        <v>86088</v>
       </c>
       <c r="G67">
-        <v>3388</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68">
-        <v>138.30000000000001</v>
+        <v>150.6</v>
       </c>
       <c r="C68">
-        <v>549.1</v>
+        <v>542.5</v>
       </c>
       <c r="D68">
-        <v>213.9</v>
+        <v>312</v>
       </c>
       <c r="E68">
-        <v>14.7</v>
+        <v>12.7</v>
       </c>
       <c r="F68">
-        <v>86088</v>
+        <v>100633</v>
       </c>
       <c r="G68">
-        <v>3864</v>
+        <v>10285</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69">
-        <v>150.6</v>
+        <v>165</v>
       </c>
       <c r="C69">
-        <v>542.5</v>
+        <v>546</v>
       </c>
       <c r="D69">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E69">
-        <v>12.7</v>
+        <v>14</v>
       </c>
       <c r="F69">
-        <v>100633</v>
+        <v>110955</v>
       </c>
       <c r="G69">
-        <v>10285</v>
+        <v>11359</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70">
-        <v>165</v>
+        <v>181.5</v>
       </c>
       <c r="C70">
-        <v>546</v>
+        <v>550.70000000000005</v>
       </c>
       <c r="D70">
-        <v>313</v>
+        <v>314.5</v>
       </c>
       <c r="E70">
-        <v>14</v>
+        <v>15.2</v>
       </c>
       <c r="F70">
-        <v>110955</v>
+        <v>123222</v>
       </c>
       <c r="G70">
-        <v>11359</v>
+        <v>12667</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71">
-        <v>181.5</v>
+        <v>196</v>
       </c>
       <c r="C71">
-        <v>550.70000000000005</v>
+        <v>554</v>
       </c>
       <c r="D71">
-        <v>314.5</v>
+        <v>316</v>
       </c>
       <c r="E71">
-        <v>15.2</v>
+        <v>16.5</v>
       </c>
       <c r="F71">
-        <v>123222</v>
+        <v>133993</v>
       </c>
       <c r="G71">
-        <v>12667</v>
+        <v>13852</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>196</v>
+        <v>218.7</v>
       </c>
       <c r="C72">
-        <v>554</v>
+        <v>560.29999999999995</v>
       </c>
       <c r="D72">
-        <v>316</v>
+        <v>317.39999999999998</v>
       </c>
       <c r="E72">
-        <v>16.5</v>
+        <v>18.3</v>
       </c>
       <c r="F72">
-        <v>133993</v>
+        <v>150976</v>
       </c>
       <c r="G72">
-        <v>13852</v>
+        <v>15589</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73">
-        <v>218.7</v>
+        <v>248</v>
       </c>
       <c r="C73">
-        <v>560.29999999999995</v>
+        <v>571</v>
       </c>
       <c r="D73">
-        <v>317.39999999999998</v>
+        <v>315</v>
       </c>
       <c r="E73">
-        <v>18.3</v>
+        <v>19</v>
       </c>
       <c r="F73">
-        <v>150976</v>
+        <v>177499</v>
       </c>
       <c r="G73">
-        <v>15589</v>
+        <v>18003</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74">
-        <v>248</v>
+        <v>273.2</v>
       </c>
       <c r="C74">
-        <v>571</v>
+        <v>577.1</v>
       </c>
       <c r="D74">
-        <v>315</v>
+        <v>320.2</v>
       </c>
       <c r="E74">
-        <v>19</v>
+        <v>21.1</v>
       </c>
       <c r="F74">
-        <v>177499</v>
+        <v>198578</v>
       </c>
       <c r="G74">
-        <v>18003</v>
+        <v>20615</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75">
-        <v>273.2</v>
+        <v>81.8</v>
       </c>
       <c r="C75">
-        <v>577.1</v>
+        <v>598.6</v>
       </c>
       <c r="D75">
-        <v>320.2</v>
+        <v>177.9</v>
       </c>
       <c r="E75">
-        <v>21.1</v>
+        <v>10</v>
       </c>
       <c r="F75">
-        <v>198578</v>
+        <v>57487</v>
       </c>
       <c r="G75">
-        <v>20615</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76">
-        <v>81.8</v>
+        <v>92.2</v>
       </c>
       <c r="C76">
-        <v>598.6</v>
+        <v>603</v>
       </c>
       <c r="D76">
-        <v>177.9</v>
+        <v>178.8</v>
       </c>
       <c r="E76">
-        <v>10</v>
+        <v>10.9</v>
       </c>
       <c r="F76">
-        <v>57487</v>
+        <v>66195</v>
       </c>
       <c r="G76">
-        <v>1209</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77">
-        <v>92.2</v>
+        <v>100.3</v>
       </c>
       <c r="C77">
-        <v>603</v>
+        <v>607.4</v>
       </c>
       <c r="D77">
-        <v>178.8</v>
+        <v>179.2</v>
       </c>
       <c r="E77">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="F77">
-        <v>66195</v>
+        <v>74145</v>
       </c>
       <c r="G77">
-        <v>1439</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78">
-        <v>100.3</v>
+        <v>101.2</v>
       </c>
       <c r="C78">
-        <v>607.4</v>
+        <v>602.6</v>
       </c>
       <c r="D78">
-        <v>179.2</v>
+        <v>227.6</v>
       </c>
       <c r="E78">
-        <v>11.3</v>
+        <v>10.5</v>
       </c>
       <c r="F78">
-        <v>74145</v>
+        <v>77398</v>
       </c>
       <c r="G78">
-        <v>1661</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79">
-        <v>101.2</v>
+        <v>113</v>
       </c>
       <c r="C79">
-        <v>602.6</v>
+        <v>607.6</v>
       </c>
       <c r="D79">
-        <v>227.6</v>
+        <v>228.2</v>
       </c>
       <c r="E79">
-        <v>10.5</v>
+        <v>11.1</v>
       </c>
       <c r="F79">
-        <v>77398</v>
+        <v>88936</v>
       </c>
       <c r="G79">
-        <v>2917</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80">
-        <v>113</v>
+        <v>125.1</v>
       </c>
       <c r="C80">
-        <v>607.6</v>
+        <v>612.20000000000005</v>
       </c>
       <c r="D80">
-        <v>228.2</v>
+        <v>229</v>
       </c>
       <c r="E80">
-        <v>11.1</v>
+        <v>11.9</v>
       </c>
       <c r="F80">
-        <v>88936</v>
+        <v>100228</v>
       </c>
       <c r="G80">
-        <v>3437</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81">
-        <v>125.1</v>
+        <v>139.9</v>
       </c>
       <c r="C81">
-        <v>612.20000000000005</v>
+        <v>617.20000000000005</v>
       </c>
       <c r="D81">
-        <v>229</v>
+        <v>230.2</v>
       </c>
       <c r="E81">
-        <v>11.9</v>
+        <v>13.1</v>
       </c>
       <c r="F81">
-        <v>100228</v>
+        <v>113395</v>
       </c>
       <c r="G81">
-        <v>3935</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82">
-        <v>139.9</v>
+        <v>149.19999999999999</v>
       </c>
       <c r="C82">
-        <v>617.20000000000005</v>
+        <v>612.4</v>
       </c>
       <c r="D82">
-        <v>230.2</v>
+        <v>304.8</v>
       </c>
       <c r="E82">
-        <v>13.1</v>
+        <v>11.8</v>
       </c>
       <c r="F82">
-        <v>113395</v>
+        <v>126738</v>
       </c>
       <c r="G82">
-        <v>4509</v>
+        <v>9309</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83">
-        <v>149.19999999999999</v>
+        <v>179</v>
       </c>
       <c r="C83">
-        <v>612.4</v>
+        <v>620.20000000000005</v>
       </c>
       <c r="D83">
-        <v>304.8</v>
+        <v>307.10000000000002</v>
       </c>
       <c r="E83">
-        <v>11.8</v>
+        <v>14.1</v>
       </c>
       <c r="F83">
-        <v>126738</v>
+        <v>153886</v>
       </c>
       <c r="G83">
-        <v>9309</v>
+        <v>11410</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84">
-        <v>179</v>
+        <v>238.1</v>
       </c>
       <c r="C84">
-        <v>620.20000000000005</v>
+        <v>635.79999999999995</v>
       </c>
       <c r="D84">
-        <v>307.10000000000002</v>
+        <v>311.39999999999998</v>
       </c>
       <c r="E84">
-        <v>14.1</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="F84">
-        <v>153886</v>
+        <v>210333</v>
       </c>
       <c r="G84">
-        <v>11410</v>
+        <v>15839</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85">
-        <v>238.1</v>
+        <v>155</v>
       </c>
       <c r="C85">
-        <v>635.79999999999995</v>
+        <v>611</v>
       </c>
       <c r="D85">
-        <v>311.39999999999998</v>
+        <v>324</v>
       </c>
       <c r="E85">
-        <v>18.399999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="F85">
-        <v>210333</v>
+        <v>130552</v>
       </c>
       <c r="G85">
-        <v>15839</v>
+        <v>10785</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C86">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="D86">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E86">
-        <v>12.7</v>
+        <v>14</v>
       </c>
       <c r="F86">
-        <v>130552</v>
+        <v>148722</v>
       </c>
       <c r="G86">
-        <v>10785</v>
+        <v>12376</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="C87">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="D87">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E87">
-        <v>14</v>
+        <v>15.4</v>
       </c>
       <c r="F87">
-        <v>148722</v>
+        <v>169453</v>
       </c>
       <c r="G87">
-        <v>12376</v>
+        <v>14242</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="C88">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="D88">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E88">
-        <v>15.4</v>
+        <v>16.5</v>
       </c>
       <c r="F88">
-        <v>169453</v>
+        <v>192362</v>
       </c>
       <c r="G88">
-        <v>14242</v>
+        <v>16319</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="C89">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="D89">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E89">
-        <v>16.5</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="F89">
-        <v>192362</v>
+        <v>216996</v>
       </c>
       <c r="G89">
-        <v>16319</v>
+        <v>18433</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="C90">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="D90">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E90">
-        <v>17.899999999999999</v>
+        <v>19</v>
       </c>
       <c r="F90">
-        <v>216996</v>
+        <v>237554</v>
       </c>
       <c r="G90">
-        <v>18433</v>
+        <v>19854</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="C91">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="D91">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E91">
-        <v>19</v>
+        <v>20.6</v>
       </c>
       <c r="F91">
-        <v>237554</v>
+        <v>262288</v>
       </c>
       <c r="G91">
-        <v>19854</v>
+        <v>22069</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="C92">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="D92">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E92">
-        <v>20.6</v>
+        <v>22.1</v>
       </c>
       <c r="F92">
-        <v>262288</v>
+        <v>285253</v>
       </c>
       <c r="G92">
-        <v>22069</v>
+        <v>23958</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="C93">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="D93">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E93">
-        <v>22.1</v>
+        <v>24.4</v>
       </c>
       <c r="F93">
-        <v>285253</v>
+        <v>319846</v>
       </c>
       <c r="G93">
-        <v>23958</v>
+        <v>27097</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="C94">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="D94">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E94">
-        <v>24.4</v>
+        <v>26.4</v>
       </c>
       <c r="F94">
-        <v>319846</v>
+        <v>354794</v>
       </c>
       <c r="G94">
-        <v>27097</v>
+        <v>30175</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95">
-        <v>372</v>
+        <v>125.2</v>
       </c>
       <c r="C95">
-        <v>669</v>
+        <v>677.9</v>
       </c>
       <c r="D95">
-        <v>335</v>
+        <v>253</v>
       </c>
       <c r="E95">
-        <v>26.4</v>
+        <v>11.7</v>
       </c>
       <c r="F95">
-        <v>354794</v>
+        <v>119448</v>
       </c>
       <c r="G95">
-        <v>30175</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96">
-        <v>125.2</v>
+        <v>140.1</v>
       </c>
       <c r="C96">
-        <v>677.9</v>
+        <v>683.5</v>
       </c>
       <c r="D96">
-        <v>253</v>
+        <v>253.7</v>
       </c>
       <c r="E96">
-        <v>11.7</v>
+        <v>12.4</v>
       </c>
       <c r="F96">
-        <v>119448</v>
+        <v>137723</v>
       </c>
       <c r="G96">
-        <v>4385</v>
+        <v>5186</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97">
-        <v>140.1</v>
+        <v>152.4</v>
       </c>
       <c r="C97">
-        <v>683.5</v>
+        <v>687.5</v>
       </c>
       <c r="D97">
-        <v>253.7</v>
+        <v>254.5</v>
       </c>
       <c r="E97">
-        <v>12.4</v>
+        <v>13.2</v>
       </c>
       <c r="F97">
-        <v>137723</v>
+        <v>151811</v>
       </c>
       <c r="G97">
-        <v>5186</v>
+        <v>5786</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98">
-        <v>152.4</v>
+        <v>170.2</v>
       </c>
       <c r="C98">
-        <v>687.5</v>
+        <v>692.9</v>
       </c>
       <c r="D98">
-        <v>254.5</v>
+        <v>255.8</v>
       </c>
       <c r="E98">
-        <v>13.2</v>
+        <v>14.5</v>
       </c>
       <c r="F98">
-        <v>151811</v>
+        <v>171782</v>
       </c>
       <c r="G98">
-        <v>5786</v>
+        <v>6633</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99">
-        <v>170.2</v>
+        <v>192.6</v>
       </c>
       <c r="C99">
-        <v>692.9</v>
+        <v>702</v>
       </c>
       <c r="D99">
-        <v>255.8</v>
+        <v>254</v>
       </c>
       <c r="E99">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="F99">
-        <v>171782</v>
+        <v>199444</v>
       </c>
       <c r="G99">
-        <v>6633</v>
+        <v>7646</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100">
-        <v>192.6</v>
+        <v>133.9</v>
       </c>
       <c r="C100">
-        <v>702</v>
+        <v>750</v>
       </c>
       <c r="D100">
-        <v>254</v>
+        <v>264.39999999999998</v>
       </c>
       <c r="E100">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="F100">
-        <v>199444</v>
+        <v>152061</v>
       </c>
       <c r="G100">
-        <v>7646</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101">
-        <v>133.9</v>
+        <v>146.9</v>
       </c>
       <c r="C101">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="D101">
-        <v>264.39999999999998</v>
+        <v>265.2</v>
       </c>
       <c r="E101">
-        <v>12</v>
+        <v>12.8</v>
       </c>
       <c r="F101">
-        <v>152061</v>
+        <v>169871</v>
       </c>
       <c r="G101">
-        <v>4790</v>
+        <v>5457</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102">
-        <v>146.9</v>
+        <v>161</v>
       </c>
       <c r="C102">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="D102">
-        <v>265.2</v>
+        <v>266</v>
       </c>
       <c r="E102">
-        <v>12.8</v>
+        <v>13.8</v>
       </c>
       <c r="F102">
-        <v>169871</v>
+        <v>187252</v>
       </c>
       <c r="G102">
-        <v>5457</v>
+        <v>6075</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="C103">
-        <v>758</v>
+        <v>762.2</v>
       </c>
       <c r="D103">
-        <v>266</v>
+        <v>266.7</v>
       </c>
       <c r="E103">
-        <v>13.8</v>
+        <v>14.3</v>
       </c>
       <c r="F103">
-        <v>187252</v>
+        <v>206651</v>
       </c>
       <c r="G103">
-        <v>6075</v>
+        <v>6852</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="C104">
-        <v>762.2</v>
+        <v>766</v>
       </c>
       <c r="D104">
-        <v>266.7</v>
+        <v>267</v>
       </c>
       <c r="E104">
-        <v>14.3</v>
+        <v>14.9</v>
       </c>
       <c r="F104">
-        <v>206651</v>
+        <v>224146</v>
       </c>
       <c r="G104">
-        <v>6852</v>
+        <v>7512</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105">
-        <v>185</v>
+        <v>196.8</v>
       </c>
       <c r="C105">
-        <v>766</v>
+        <v>769.8</v>
       </c>
       <c r="D105">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E105">
-        <v>14.9</v>
+        <v>15.6</v>
       </c>
       <c r="F105">
-        <v>224146</v>
+        <v>241326</v>
       </c>
       <c r="G105">
-        <v>7512</v>
+        <v>8177</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106">
-        <v>196.8</v>
+        <v>175.9</v>
       </c>
       <c r="C106">
-        <v>769.8</v>
+        <v>834.9</v>
       </c>
       <c r="D106">
-        <v>268</v>
+        <v>291.7</v>
       </c>
       <c r="E106">
-        <v>15.6</v>
+        <v>14</v>
       </c>
       <c r="F106">
-        <v>241326</v>
+        <v>247120</v>
       </c>
       <c r="G106">
-        <v>8177</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107">
-        <v>175.9</v>
+        <v>193.8</v>
       </c>
       <c r="C107">
-        <v>834.9</v>
+        <v>840.7</v>
       </c>
       <c r="D107">
-        <v>291.7</v>
+        <v>292.39999999999998</v>
       </c>
       <c r="E107">
-        <v>14</v>
+        <v>14.7</v>
       </c>
       <c r="F107">
-        <v>247120</v>
+        <v>280274</v>
       </c>
       <c r="G107">
-        <v>7800</v>
+        <v>9068</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108">
-        <v>193.8</v>
+        <v>210</v>
       </c>
       <c r="C108">
-        <v>840.7</v>
+        <v>846</v>
       </c>
       <c r="D108">
-        <v>292.39999999999998</v>
+        <v>293</v>
       </c>
       <c r="E108">
-        <v>14.7</v>
+        <v>15.4</v>
       </c>
       <c r="F108">
-        <v>280274</v>
+        <v>311719</v>
       </c>
       <c r="G108">
-        <v>9068</v>
+        <v>10259</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109">
-        <v>210</v>
+        <v>226.5</v>
       </c>
       <c r="C109">
-        <v>846</v>
+        <v>850.9</v>
       </c>
       <c r="D109">
-        <v>293</v>
+        <v>293.8</v>
       </c>
       <c r="E109">
-        <v>15.4</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="F109">
-        <v>311719</v>
+        <v>340802</v>
       </c>
       <c r="G109">
-        <v>10259</v>
+        <v>11361</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110">
-        <v>226.5</v>
+        <v>250.7</v>
       </c>
       <c r="C110">
-        <v>850.9</v>
+        <v>859</v>
       </c>
       <c r="D110">
-        <v>293.8</v>
+        <v>292.10000000000002</v>
       </c>
       <c r="E110">
-        <v>16.100000000000001</v>
+        <v>17</v>
       </c>
       <c r="F110">
-        <v>340802</v>
+        <v>387599</v>
       </c>
       <c r="G110">
-        <v>11361</v>
+        <v>12916</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111">
-        <v>250.7</v>
+        <v>200.9</v>
       </c>
       <c r="C111">
-        <v>859</v>
+        <v>903</v>
       </c>
       <c r="D111">
-        <v>292.10000000000002</v>
+        <v>303.3</v>
       </c>
       <c r="E111">
-        <v>17</v>
+        <v>15.1</v>
       </c>
       <c r="F111">
-        <v>387599</v>
+        <v>325254</v>
       </c>
       <c r="G111">
-        <v>12916</v>
+        <v>9423</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112">
-        <v>200.9</v>
+        <v>224.2</v>
       </c>
       <c r="C112">
-        <v>903</v>
+        <v>910.4</v>
       </c>
       <c r="D112">
-        <v>303.3</v>
+        <v>304.10000000000002</v>
       </c>
       <c r="E112">
-        <v>15.1</v>
+        <v>15.9</v>
       </c>
       <c r="F112">
-        <v>325254</v>
+        <v>376414</v>
       </c>
       <c r="G112">
-        <v>9423</v>
+        <v>11236</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113">
-        <v>224.2</v>
+        <v>238.3</v>
       </c>
       <c r="C113">
-        <v>910.4</v>
+        <v>915</v>
       </c>
       <c r="D113">
-        <v>304.10000000000002</v>
+        <v>305</v>
       </c>
       <c r="E113">
-        <v>15.9</v>
+        <v>16.5</v>
       </c>
       <c r="F113">
-        <v>376414</v>
+        <v>406472</v>
       </c>
       <c r="G113">
-        <v>11236</v>
+        <v>12285</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114">
-        <v>238.3</v>
+        <v>253.4</v>
       </c>
       <c r="C114">
-        <v>915</v>
+        <v>918.4</v>
       </c>
       <c r="D114">
-        <v>305</v>
+        <v>305.5</v>
       </c>
       <c r="E114">
-        <v>16.5</v>
+        <v>17.3</v>
       </c>
       <c r="F114">
-        <v>406472</v>
+        <v>436305</v>
       </c>
       <c r="G114">
-        <v>12285</v>
+        <v>13301</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115">
-        <v>253.4</v>
+        <v>271</v>
       </c>
       <c r="C115">
-        <v>918.4</v>
+        <v>923</v>
       </c>
       <c r="D115">
-        <v>305.5</v>
+        <v>307</v>
       </c>
       <c r="E115">
-        <v>17.3</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="F115">
-        <v>436305</v>
+        <v>471633</v>
       </c>
       <c r="G115">
-        <v>13301</v>
+        <v>14518</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116">
-        <v>271</v>
+        <v>289.10000000000002</v>
       </c>
       <c r="C116">
-        <v>923</v>
+        <v>926.6</v>
       </c>
       <c r="D116">
-        <v>307</v>
+        <v>307.7</v>
       </c>
       <c r="E116">
-        <v>18.399999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="F116">
-        <v>471633</v>
+        <v>504187</v>
       </c>
       <c r="G116">
-        <v>14518</v>
+        <v>15597</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117">
-        <v>289.10000000000002</v>
+        <v>313</v>
       </c>
       <c r="C117">
-        <v>926.6</v>
+        <v>932</v>
       </c>
       <c r="D117">
-        <v>307.7</v>
+        <v>309</v>
       </c>
       <c r="E117">
-        <v>19.5</v>
+        <v>21.1</v>
       </c>
       <c r="F117">
-        <v>504187</v>
+        <v>548297</v>
       </c>
       <c r="G117">
-        <v>15597</v>
+        <v>17039</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118">
-        <v>313</v>
+        <v>345.1</v>
       </c>
       <c r="C118">
-        <v>932</v>
+        <v>943</v>
       </c>
       <c r="D118">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E118">
-        <v>21.1</v>
+        <v>22.1</v>
       </c>
       <c r="F118">
-        <v>548297</v>
+        <v>625645</v>
       </c>
       <c r="G118">
-        <v>17039</v>
+        <v>19515</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119">
-        <v>345.1</v>
+        <v>381.5</v>
       </c>
       <c r="C119">
-        <v>943</v>
+        <v>950.7</v>
       </c>
       <c r="D119">
-        <v>308</v>
+        <v>310.3</v>
       </c>
       <c r="E119">
-        <v>22.1</v>
+        <v>24.4</v>
       </c>
       <c r="F119">
-        <v>625645</v>
+        <v>697408</v>
       </c>
       <c r="G119">
-        <v>19515</v>
+        <v>21975</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120">
-        <v>381.5</v>
+        <v>343.3</v>
       </c>
       <c r="C120">
-        <v>950.7</v>
+        <v>911.8</v>
       </c>
       <c r="D120">
-        <v>310.3</v>
+        <v>418.5</v>
       </c>
       <c r="E120">
-        <v>24.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="F120">
-        <v>697408</v>
+        <v>625780</v>
       </c>
       <c r="G120">
-        <v>21975</v>
+        <v>39156</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121">
-        <v>343.3</v>
+        <v>365</v>
       </c>
       <c r="C121">
-        <v>911.8</v>
+        <v>916</v>
       </c>
       <c r="D121">
-        <v>418.5</v>
+        <v>419.4</v>
       </c>
       <c r="E121">
-        <v>19.399999999999999</v>
+        <v>20.3</v>
       </c>
       <c r="F121">
-        <v>625780</v>
+        <v>671104</v>
       </c>
       <c r="G121">
-        <v>39156</v>
+        <v>42245</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="C122">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="D122">
-        <v>419.4</v>
+        <v>420.5</v>
       </c>
       <c r="E122">
-        <v>20.3</v>
+        <v>21.4</v>
       </c>
       <c r="F122">
-        <v>671104</v>
+        <v>719635</v>
       </c>
       <c r="G122">
-        <v>42245</v>
+        <v>45438</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123">
-        <v>388</v>
+        <v>222</v>
       </c>
       <c r="C123">
-        <v>921</v>
+        <v>970.3</v>
       </c>
       <c r="D123">
-        <v>420.5</v>
+        <v>300</v>
       </c>
       <c r="E123">
-        <v>21.4</v>
+        <v>16</v>
       </c>
       <c r="F123">
-        <v>719635</v>
+        <v>407961</v>
       </c>
       <c r="G123">
-        <v>45438</v>
+        <v>9546</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124">
-        <v>222</v>
+        <v>248.7</v>
       </c>
       <c r="C124">
-        <v>970.3</v>
+        <v>980.1</v>
       </c>
       <c r="D124">
         <v>300</v>
       </c>
       <c r="E124">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="F124">
-        <v>407961</v>
+        <v>481192</v>
       </c>
       <c r="G124">
-        <v>9546</v>
+        <v>11754</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125">
-        <v>248.7</v>
+        <v>272.3</v>
       </c>
       <c r="C125">
-        <v>980.1</v>
+        <v>990.1</v>
       </c>
       <c r="D125">
         <v>300</v>
@@ -3287,147 +3310,124 @@
         <v>16.5</v>
       </c>
       <c r="F125">
-        <v>481192</v>
+        <v>553974</v>
       </c>
       <c r="G125">
-        <v>11754</v>
+        <v>14004</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B126">
-        <v>272.3</v>
+        <v>314.3</v>
       </c>
       <c r="C126">
-        <v>990.1</v>
+        <v>999.9</v>
       </c>
       <c r="D126">
         <v>300</v>
       </c>
       <c r="E126">
-        <v>16.5</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="F126">
-        <v>553974</v>
+        <v>644063</v>
       </c>
       <c r="G126">
-        <v>14004</v>
+        <v>16232</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127">
-        <v>314.3</v>
+        <v>349.4</v>
       </c>
       <c r="C127">
-        <v>999.9</v>
+        <v>1008</v>
       </c>
       <c r="D127">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E127">
-        <v>19.100000000000001</v>
+        <v>21.1</v>
       </c>
       <c r="F127">
-        <v>644063</v>
+        <v>722965</v>
       </c>
       <c r="G127">
-        <v>16232</v>
+        <v>18460</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128">
-        <v>349.4</v>
+        <v>392.7</v>
       </c>
       <c r="C128">
-        <v>1008</v>
+        <v>1015.9</v>
       </c>
       <c r="D128">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E128">
-        <v>21.1</v>
+        <v>24.4</v>
       </c>
       <c r="F128">
-        <v>722965</v>
+        <v>807503</v>
       </c>
       <c r="G128">
-        <v>18460</v>
+        <v>20496</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B129">
-        <v>392.7</v>
+        <v>437</v>
       </c>
       <c r="C129">
-        <v>1015.9</v>
+        <v>1026.0999999999999</v>
       </c>
       <c r="D129">
-        <v>303</v>
+        <v>305.39999999999998</v>
       </c>
       <c r="E129">
-        <v>24.4</v>
+        <v>26.9</v>
       </c>
       <c r="F129">
-        <v>807503</v>
+        <v>910322</v>
       </c>
       <c r="G129">
-        <v>20496</v>
+        <v>23447</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B130">
-        <v>437</v>
+        <v>486.7</v>
       </c>
       <c r="C130">
-        <v>1026.0999999999999</v>
+        <v>1036.3</v>
       </c>
       <c r="D130">
-        <v>305.39999999999998</v>
+        <v>308.5</v>
       </c>
       <c r="E130">
-        <v>26.9</v>
+        <v>30</v>
       </c>
       <c r="F130">
-        <v>910322</v>
+        <v>1021884</v>
       </c>
       <c r="G130">
-        <v>23447</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>129</v>
-      </c>
-      <c r="B131">
-        <v>486.7</v>
-      </c>
-      <c r="C131">
-        <v>1036.3</v>
-      </c>
-      <c r="D131">
-        <v>308.5</v>
-      </c>
-      <c r="E131">
-        <v>30</v>
-      </c>
-      <c r="F131">
-        <v>1021884</v>
-      </c>
-      <c r="G131">
         <v>26721</v>
       </c>
     </row>

--- a/Beam_specifications.xlsx
+++ b/Beam_specifications.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliecarey/Documents/GitHub/DP5_Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A95C75-CE14-1E46-B8C1-FB20B4D6D834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB69A3F0-9B93-E64E-9053-5D0519EEA2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="500" windowWidth="27520" windowHeight="16940" xr2:uid="{FE6E7D45-D27E-9547-9645-A7EB7BB78B66}"/>
+    <workbookView xWindow="360" yWindow="500" windowWidth="27520" windowHeight="16940" activeTab="2" xr2:uid="{FE6E7D45-D27E-9547-9645-A7EB7BB78B66}"/>
   </bookViews>
   <sheets>
     <sheet name="I-beam" sheetId="1" r:id="rId1"/>
+    <sheet name="HSS" sheetId="2" r:id="rId2"/>
+    <sheet name="Tee-bar" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
   <si>
     <t>Serial size</t>
   </si>
@@ -63,6 +65,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -92,8 +97,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8EBE64-A297-CE44-820C-4C5B43359327}">
   <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -471,13 +477,13 @@
       <c r="B2">
         <v>13</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>127</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>76</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>4</v>
       </c>
       <c r="F2">
@@ -494,13 +500,13 @@
       <c r="B3">
         <v>16</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>152.4</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>88.7</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>4.5</v>
       </c>
       <c r="F3">
@@ -517,13 +523,13 @@
       <c r="B4">
         <v>19</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>177.8</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>101.2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>4.8</v>
       </c>
       <c r="F4">
@@ -540,13 +546,13 @@
       <c r="B5">
         <v>23.1</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>203.2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>101.8</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>5.4</v>
       </c>
       <c r="F5">
@@ -563,13 +569,13 @@
       <c r="B6">
         <v>25.1</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>203.2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>133.19999999999999</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>5.7</v>
       </c>
       <c r="F6">
@@ -586,13 +592,13 @@
       <c r="B7">
         <v>30</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>206.8</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>133.9</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>6.4</v>
       </c>
       <c r="F7">
@@ -609,13 +615,13 @@
       <c r="B8">
         <v>22</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>254</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>101.6</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>5.7</v>
       </c>
       <c r="F8">
@@ -632,13 +638,13 @@
       <c r="B9">
         <v>25.2</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>257.2</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>101.9</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>6</v>
       </c>
       <c r="F9">
@@ -655,13 +661,13 @@
       <c r="B10">
         <v>28.3</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>260.39999999999998</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>102.2</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>6.3</v>
       </c>
       <c r="F10">
@@ -678,13 +684,13 @@
       <c r="B11">
         <v>31.1</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>251.4</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>146.1</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>6</v>
       </c>
       <c r="F11">
@@ -701,13 +707,13 @@
       <c r="B12">
         <v>37</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>256</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>146.4</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>6.3</v>
       </c>
       <c r="F12">
@@ -724,13 +730,13 @@
       <c r="B13">
         <v>43</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>259.60000000000002</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>147.30000000000001</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>7.2</v>
       </c>
       <c r="F13">
@@ -747,13 +753,13 @@
       <c r="B14">
         <v>24.8</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>305.10000000000002</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>101.6</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>5.8</v>
       </c>
       <c r="F14">
@@ -770,13 +776,13 @@
       <c r="B15">
         <v>28.2</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>308.7</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>101.8</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>6</v>
       </c>
       <c r="F15">
@@ -793,13 +799,13 @@
       <c r="B16">
         <v>32.799999999999997</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>312.7</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>102.4</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>6.6</v>
       </c>
       <c r="F16">
@@ -816,13 +822,13 @@
       <c r="B17">
         <v>37</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>304.39999999999998</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>123.4</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>7.1</v>
       </c>
       <c r="F17">
@@ -839,13 +845,13 @@
       <c r="B18">
         <v>41.9</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>307.2</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>124.3</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>8</v>
       </c>
       <c r="F18">
@@ -862,13 +868,13 @@
       <c r="B19">
         <v>48.1</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>311</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>125.3</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>9</v>
       </c>
       <c r="F19">
@@ -885,13 +891,13 @@
       <c r="B20">
         <v>40.299999999999997</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>303.39999999999998</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>165</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>6</v>
       </c>
       <c r="F20">
@@ -908,13 +914,13 @@
       <c r="B21">
         <v>46.1</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>306.60000000000002</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>165.7</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>6.7</v>
       </c>
       <c r="F21">
@@ -931,13 +937,13 @@
       <c r="B22">
         <v>54</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>310.39999999999998</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>166.9</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>7.9</v>
       </c>
       <c r="F22">
@@ -954,13 +960,13 @@
       <c r="B23">
         <v>45</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>351.4</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>171.11</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>7</v>
       </c>
       <c r="F23">
@@ -977,13 +983,13 @@
       <c r="B24">
         <v>51</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>355</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>171.5</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>7.4</v>
       </c>
       <c r="F24">
@@ -1000,13 +1006,13 @@
       <c r="B25">
         <v>57</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>358</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>172.2</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>8.1</v>
       </c>
       <c r="F25">
@@ -1023,13 +1029,13 @@
       <c r="B26">
         <v>67.099999999999994</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>363.4</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>173.2</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>9.1</v>
       </c>
       <c r="F26">
@@ -1046,13 +1052,13 @@
       <c r="B27">
         <v>39</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>398</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>141.80000000000001</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>6.4</v>
       </c>
       <c r="F27">
@@ -1069,13 +1075,13 @@
       <c r="B28">
         <v>46</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>403.2</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>142.19999999999999</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>6.8</v>
       </c>
       <c r="F28">
@@ -1092,13 +1098,13 @@
       <c r="B29">
         <v>53.3</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>406.6</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>143.30000000000001</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>7.9</v>
       </c>
       <c r="F29">
@@ -1115,13 +1121,13 @@
       <c r="B30">
         <v>54.1</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>402.6</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>177.7</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>7.7</v>
       </c>
       <c r="F30">
@@ -1138,13 +1144,13 @@
       <c r="B31">
         <v>60.1</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>406.4</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>177.9</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>7.9</v>
       </c>
       <c r="F31">
@@ -1161,13 +1167,13 @@
       <c r="B32">
         <v>67.099999999999994</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>409.4</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>178.8</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>8.8000000000000007</v>
       </c>
       <c r="F32">
@@ -1184,13 +1190,13 @@
       <c r="B33">
         <v>74.2</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>412.8</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>179.5</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>9.5</v>
       </c>
       <c r="F33">
@@ -1207,13 +1213,13 @@
       <c r="B34">
         <v>85.3</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>417.2</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>181.8</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>10.9</v>
       </c>
       <c r="F34">
@@ -1230,13 +1236,13 @@
       <c r="B35">
         <v>52.3</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>449.8</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>152.4</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>7.6</v>
       </c>
       <c r="F35">
@@ -1253,13 +1259,13 @@
       <c r="B36">
         <v>59.8</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>454.6</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>152.9</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>8.1</v>
       </c>
       <c r="F36">
@@ -1276,13 +1282,13 @@
       <c r="B37">
         <v>67.2</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>458</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>153.80000000000001</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>9</v>
       </c>
       <c r="F37">
@@ -1299,13 +1305,13 @@
       <c r="B38">
         <v>74.2</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>462</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>154.4</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <v>9.6</v>
       </c>
       <c r="F38">
@@ -1322,13 +1328,13 @@
       <c r="B39">
         <v>82.1</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>465.8</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>155.30000000000001</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <v>10.5</v>
       </c>
       <c r="F39">
@@ -1345,13 +1351,13 @@
       <c r="B40">
         <v>67.099999999999994</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>453.4</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>189.9</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <v>8.5</v>
       </c>
       <c r="F40">
@@ -1368,13 +1374,13 @@
       <c r="B41">
         <v>74.3</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>457</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>190.4</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
         <v>9</v>
       </c>
       <c r="F41">
@@ -1391,13 +1397,13 @@
       <c r="B42">
         <v>82</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>460</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>191.3</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="1">
         <v>9.9</v>
       </c>
       <c r="F42">
@@ -1414,13 +1420,13 @@
       <c r="B43">
         <v>89.3</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>463.4</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>191.9</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="1">
         <v>10.5</v>
       </c>
       <c r="F43">
@@ -1437,13 +1443,13 @@
       <c r="B44">
         <v>98.3</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>467.2</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>192.8</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="1">
         <v>11.4</v>
       </c>
       <c r="F44">
@@ -1460,13 +1466,13 @@
       <c r="B45">
         <v>105.8</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>469.2</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>194</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="1">
         <v>12.6</v>
       </c>
       <c r="F45">
@@ -1483,13 +1489,13 @@
       <c r="B46">
         <v>133.30000000000001</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>480.6</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>196.7</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="1">
         <v>15.3</v>
       </c>
       <c r="F46">
@@ -1506,13 +1512,13 @@
       <c r="B47">
         <v>161.4</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>492</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>199.4</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="1">
         <v>18</v>
       </c>
       <c r="F47">
@@ -1529,13 +1535,13 @@
       <c r="B48">
         <v>113</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>463</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>280</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="1">
         <v>10.8</v>
       </c>
       <c r="F48">
@@ -1552,13 +1558,13 @@
       <c r="B49">
         <v>123</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>467</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>282</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="1">
         <v>12.2</v>
       </c>
       <c r="F49">
@@ -1575,13 +1581,13 @@
       <c r="B50">
         <v>144</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>472</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>283</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="1">
         <v>13.6</v>
       </c>
       <c r="F50">
@@ -1598,13 +1604,13 @@
       <c r="B51">
         <v>158</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>476</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>284</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="1">
         <v>15</v>
       </c>
       <c r="F51">
@@ -1621,13 +1627,13 @@
       <c r="B52">
         <v>177</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>482</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1">
         <v>286</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="1">
         <v>16.600000000000001</v>
       </c>
       <c r="F52">
@@ -1644,13 +1650,13 @@
       <c r="B53">
         <v>193</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
         <v>489</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="1">
         <v>283</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="1">
         <v>17</v>
       </c>
       <c r="F53">
@@ -1667,13 +1673,13 @@
       <c r="B54">
         <v>213</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
         <v>495</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="1">
         <v>285</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="1">
         <v>18.5</v>
       </c>
       <c r="F54">
@@ -1690,13 +1696,13 @@
       <c r="B55">
         <v>235</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <v>501</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="1">
         <v>287</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="1">
         <v>20.6</v>
       </c>
       <c r="F55">
@@ -1713,13 +1719,13 @@
       <c r="B56">
         <v>260</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>509</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
         <v>289</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="1">
         <v>22.6</v>
       </c>
       <c r="F56">
@@ -1736,13 +1742,13 @@
       <c r="B57">
         <v>286</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
         <v>517</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="1">
         <v>291</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="1">
         <v>24.4</v>
       </c>
       <c r="F57">
@@ -1759,13 +1765,13 @@
       <c r="B58">
         <v>315</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>525</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1">
         <v>293</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="1">
         <v>26.9</v>
       </c>
       <c r="F58">
@@ -1782,13 +1788,13 @@
       <c r="B59">
         <v>65.7</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>524.70000000000005</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="1">
         <v>165.1</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="1">
         <v>8.9</v>
       </c>
       <c r="F59">
@@ -1805,13 +1811,13 @@
       <c r="B60">
         <v>74.7</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>529.1</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="1">
         <v>165.9</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="1">
         <v>9.6999999999999993</v>
       </c>
       <c r="F60">
@@ -1828,13 +1834,13 @@
       <c r="B61">
         <v>84.8</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
         <v>534.9</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="1">
         <v>166.5</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="1">
         <v>10.3</v>
       </c>
       <c r="F61">
@@ -1851,13 +1857,13 @@
       <c r="B62">
         <v>82.2</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
         <v>528.29999999999995</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="1">
         <v>208.8</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="1">
         <v>9.6</v>
       </c>
       <c r="F62">
@@ -1874,13 +1880,13 @@
       <c r="B63">
         <v>92.1</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="1">
         <v>533.1</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="1">
         <v>209.3</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="1">
         <v>10.1</v>
       </c>
       <c r="F63">
@@ -1897,13 +1903,13 @@
       <c r="B64">
         <v>101</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="1">
         <v>536.70000000000005</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="1">
         <v>210</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="1">
         <v>10.8</v>
       </c>
       <c r="F64">
@@ -1920,13 +1926,13 @@
       <c r="B65">
         <v>109</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
         <v>539.5</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="1">
         <v>210.8</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="1">
         <v>11.6</v>
       </c>
       <c r="F65">
@@ -1943,13 +1949,13 @@
       <c r="B66">
         <v>122</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="1">
         <v>544.5</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="1">
         <v>211.9</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="1">
         <v>12.7</v>
       </c>
       <c r="F66">
@@ -1966,13 +1972,13 @@
       <c r="B67">
         <v>138.30000000000001</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1">
         <v>549.1</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="1">
         <v>213.9</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="1">
         <v>14.7</v>
       </c>
       <c r="F67">
@@ -1989,13 +1995,13 @@
       <c r="B68">
         <v>150.6</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="1">
         <v>542.5</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="1">
         <v>312</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="1">
         <v>12.7</v>
       </c>
       <c r="F68">
@@ -2012,13 +2018,13 @@
       <c r="B69">
         <v>165</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="1">
         <v>546</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="1">
         <v>313</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="1">
         <v>14</v>
       </c>
       <c r="F69">
@@ -2035,13 +2041,13 @@
       <c r="B70">
         <v>181.5</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="1">
         <v>550.70000000000005</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="1">
         <v>314.5</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="1">
         <v>15.2</v>
       </c>
       <c r="F70">
@@ -2058,13 +2064,13 @@
       <c r="B71">
         <v>196</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="1">
         <v>554</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="1">
         <v>316</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="1">
         <v>16.5</v>
       </c>
       <c r="F71">
@@ -2081,13 +2087,13 @@
       <c r="B72">
         <v>218.7</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="1">
         <v>560.29999999999995</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="1">
         <v>317.39999999999998</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="1">
         <v>18.3</v>
       </c>
       <c r="F72">
@@ -2104,13 +2110,13 @@
       <c r="B73">
         <v>248</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="1">
         <v>571</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="1">
         <v>315</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="1">
         <v>19</v>
       </c>
       <c r="F73">
@@ -2127,13 +2133,13 @@
       <c r="B74">
         <v>273.2</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1">
         <v>577.1</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="1">
         <v>320.2</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="1">
         <v>21.1</v>
       </c>
       <c r="F74">
@@ -2150,13 +2156,13 @@
       <c r="B75">
         <v>81.8</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1">
         <v>598.6</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="1">
         <v>177.9</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="1">
         <v>10</v>
       </c>
       <c r="F75">
@@ -2173,13 +2179,13 @@
       <c r="B76">
         <v>92.2</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1">
         <v>603</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="1">
         <v>178.8</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="1">
         <v>10.9</v>
       </c>
       <c r="F76">
@@ -2196,13 +2202,13 @@
       <c r="B77">
         <v>100.3</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="1">
         <v>607.4</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="1">
         <v>179.2</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="1">
         <v>11.3</v>
       </c>
       <c r="F77">
@@ -2219,13 +2225,13 @@
       <c r="B78">
         <v>101.2</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="1">
         <v>602.6</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="1">
         <v>227.6</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="1">
         <v>10.5</v>
       </c>
       <c r="F78">
@@ -2242,13 +2248,13 @@
       <c r="B79">
         <v>113</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="1">
         <v>607.6</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="1">
         <v>228.2</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="1">
         <v>11.1</v>
       </c>
       <c r="F79">
@@ -2265,13 +2271,13 @@
       <c r="B80">
         <v>125.1</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="1">
         <v>612.20000000000005</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="1">
         <v>229</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="1">
         <v>11.9</v>
       </c>
       <c r="F80">
@@ -2288,13 +2294,13 @@
       <c r="B81">
         <v>139.9</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="1">
         <v>617.20000000000005</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="1">
         <v>230.2</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="1">
         <v>13.1</v>
       </c>
       <c r="F81">
@@ -2311,13 +2317,13 @@
       <c r="B82">
         <v>149.19999999999999</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="1">
         <v>612.4</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="1">
         <v>304.8</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="1">
         <v>11.8</v>
       </c>
       <c r="F82">
@@ -2334,13 +2340,13 @@
       <c r="B83">
         <v>179</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="1">
         <v>620.20000000000005</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="1">
         <v>307.10000000000002</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="1">
         <v>14.1</v>
       </c>
       <c r="F83">
@@ -2357,13 +2363,13 @@
       <c r="B84">
         <v>238.1</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="1">
         <v>635.79999999999995</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="1">
         <v>311.39999999999998</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="1">
         <v>18.399999999999999</v>
       </c>
       <c r="F84">
@@ -2380,13 +2386,13 @@
       <c r="B85">
         <v>155</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="1">
         <v>611</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="1">
         <v>324</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="1">
         <v>12.7</v>
       </c>
       <c r="F85">
@@ -2403,13 +2409,13 @@
       <c r="B86">
         <v>174</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="1">
         <v>616</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="1">
         <v>325</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="1">
         <v>14</v>
       </c>
       <c r="F86">
@@ -2426,13 +2432,13 @@
       <c r="B87">
         <v>195</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="1">
         <v>622</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="1">
         <v>327</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="1">
         <v>15.4</v>
       </c>
       <c r="F87">
@@ -2449,13 +2455,13 @@
       <c r="B88">
         <v>217</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="1">
         <v>628</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="1">
         <v>328</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="1">
         <v>16.5</v>
       </c>
       <c r="F88">
@@ -2472,13 +2478,13 @@
       <c r="B89">
         <v>241</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="1">
         <v>635</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="1">
         <v>329</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="1">
         <v>17.899999999999999</v>
       </c>
       <c r="F89">
@@ -2495,13 +2501,13 @@
       <c r="B90">
         <v>262</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="1">
         <v>641</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="1">
         <v>327</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="1">
         <v>19</v>
       </c>
       <c r="F90">
@@ -2518,13 +2524,13 @@
       <c r="B91">
         <v>285</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="1">
         <v>647</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="1">
         <v>329</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="1">
         <v>20.6</v>
       </c>
       <c r="F91">
@@ -2541,13 +2547,13 @@
       <c r="B92">
         <v>307</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="1">
         <v>653</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="1">
         <v>330</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="1">
         <v>22.1</v>
       </c>
       <c r="F92">
@@ -2564,13 +2570,13 @@
       <c r="B93">
         <v>341</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="1">
         <v>661</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="1">
         <v>333</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="1">
         <v>24.4</v>
       </c>
       <c r="F93">
@@ -2587,13 +2593,13 @@
       <c r="B94">
         <v>372</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="1">
         <v>669</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="1">
         <v>335</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="1">
         <v>26.4</v>
       </c>
       <c r="F94">
@@ -2610,13 +2616,13 @@
       <c r="B95">
         <v>125.2</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="1">
         <v>677.9</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="1">
         <v>253</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="1">
         <v>11.7</v>
       </c>
       <c r="F95">
@@ -2633,13 +2639,13 @@
       <c r="B96">
         <v>140.1</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="1">
         <v>683.5</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="1">
         <v>253.7</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="1">
         <v>12.4</v>
       </c>
       <c r="F96">
@@ -2656,13 +2662,13 @@
       <c r="B97">
         <v>152.4</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="1">
         <v>687.5</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="1">
         <v>254.5</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="1">
         <v>13.2</v>
       </c>
       <c r="F97">
@@ -2679,13 +2685,13 @@
       <c r="B98">
         <v>170.2</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="1">
         <v>692.9</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="1">
         <v>255.8</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="1">
         <v>14.5</v>
       </c>
       <c r="F98">
@@ -2702,13 +2708,13 @@
       <c r="B99">
         <v>192.6</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="1">
         <v>702</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="1">
         <v>254</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="1">
         <v>15.5</v>
       </c>
       <c r="F99">
@@ -2725,13 +2731,13 @@
       <c r="B100">
         <v>133.9</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="1">
         <v>750</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="1">
         <v>264.39999999999998</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="1">
         <v>12</v>
       </c>
       <c r="F100">
@@ -2748,13 +2754,13 @@
       <c r="B101">
         <v>146.9</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="1">
         <v>754</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="1">
         <v>265.2</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="1">
         <v>12.8</v>
       </c>
       <c r="F101">
@@ -2771,13 +2777,13 @@
       <c r="B102">
         <v>161</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="1">
         <v>758</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="1">
         <v>266</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="1">
         <v>13.8</v>
       </c>
       <c r="F102">
@@ -2794,13 +2800,13 @@
       <c r="B103">
         <v>173</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="1">
         <v>762.2</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="1">
         <v>266.7</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="1">
         <v>14.3</v>
       </c>
       <c r="F103">
@@ -2817,13 +2823,13 @@
       <c r="B104">
         <v>185</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="1">
         <v>766</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="1">
         <v>267</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="1">
         <v>14.9</v>
       </c>
       <c r="F104">
@@ -2840,13 +2846,13 @@
       <c r="B105">
         <v>196.8</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="1">
         <v>769.8</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="1">
         <v>268</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="1">
         <v>15.6</v>
       </c>
       <c r="F105">
@@ -2863,13 +2869,13 @@
       <c r="B106">
         <v>175.9</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="1">
         <v>834.9</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="1">
         <v>291.7</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="1">
         <v>14</v>
       </c>
       <c r="F106">
@@ -2886,13 +2892,13 @@
       <c r="B107">
         <v>193.8</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="1">
         <v>840.7</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="1">
         <v>292.39999999999998</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="1">
         <v>14.7</v>
       </c>
       <c r="F107">
@@ -2909,13 +2915,13 @@
       <c r="B108">
         <v>210</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="1">
         <v>846</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="1">
         <v>293</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="1">
         <v>15.4</v>
       </c>
       <c r="F108">
@@ -2932,13 +2938,13 @@
       <c r="B109">
         <v>226.5</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="1">
         <v>850.9</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="1">
         <v>293.8</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="1">
         <v>16.100000000000001</v>
       </c>
       <c r="F109">
@@ -2955,13 +2961,13 @@
       <c r="B110">
         <v>250.7</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="1">
         <v>859</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="1">
         <v>292.10000000000002</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="1">
         <v>17</v>
       </c>
       <c r="F110">
@@ -2978,13 +2984,13 @@
       <c r="B111">
         <v>200.9</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="1">
         <v>903</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="1">
         <v>303.3</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="1">
         <v>15.1</v>
       </c>
       <c r="F111">
@@ -3001,13 +3007,13 @@
       <c r="B112">
         <v>224.2</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="1">
         <v>910.4</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="1">
         <v>304.10000000000002</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="1">
         <v>15.9</v>
       </c>
       <c r="F112">
@@ -3024,13 +3030,13 @@
       <c r="B113">
         <v>238.3</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="1">
         <v>915</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="1">
         <v>305</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="1">
         <v>16.5</v>
       </c>
       <c r="F113">
@@ -3047,13 +3053,13 @@
       <c r="B114">
         <v>253.4</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="1">
         <v>918.4</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="1">
         <v>305.5</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="1">
         <v>17.3</v>
       </c>
       <c r="F114">
@@ -3070,13 +3076,13 @@
       <c r="B115">
         <v>271</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="1">
         <v>923</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="1">
         <v>307</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="1">
         <v>18.399999999999999</v>
       </c>
       <c r="F115">
@@ -3093,13 +3099,13 @@
       <c r="B116">
         <v>289.10000000000002</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="1">
         <v>926.6</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="1">
         <v>307.7</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="1">
         <v>19.5</v>
       </c>
       <c r="F116">
@@ -3116,13 +3122,13 @@
       <c r="B117">
         <v>313</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="1">
         <v>932</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="1">
         <v>309</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="1">
         <v>21.1</v>
       </c>
       <c r="F117">
@@ -3139,13 +3145,13 @@
       <c r="B118">
         <v>345.1</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="1">
         <v>943</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="1">
         <v>308</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="1">
         <v>22.1</v>
       </c>
       <c r="F118">
@@ -3162,13 +3168,13 @@
       <c r="B119">
         <v>381.5</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="1">
         <v>950.7</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="1">
         <v>310.3</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="1">
         <v>24.4</v>
       </c>
       <c r="F119">
@@ -3185,13 +3191,13 @@
       <c r="B120">
         <v>343.3</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="1">
         <v>911.8</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="1">
         <v>418.5</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="1">
         <v>19.399999999999999</v>
       </c>
       <c r="F120">
@@ -3208,13 +3214,13 @@
       <c r="B121">
         <v>365</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="1">
         <v>916</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="1">
         <v>419.4</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="1">
         <v>20.3</v>
       </c>
       <c r="F121">
@@ -3231,13 +3237,13 @@
       <c r="B122">
         <v>388</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="1">
         <v>921</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="1">
         <v>420.5</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="1">
         <v>21.4</v>
       </c>
       <c r="F122">
@@ -3254,13 +3260,13 @@
       <c r="B123">
         <v>222</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="1">
         <v>970.3</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="1">
         <v>300</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="1">
         <v>16</v>
       </c>
       <c r="F123">
@@ -3277,13 +3283,13 @@
       <c r="B124">
         <v>248.7</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="1">
         <v>980.1</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="1">
         <v>300</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="1">
         <v>16.5</v>
       </c>
       <c r="F124">
@@ -3300,13 +3306,13 @@
       <c r="B125">
         <v>272.3</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="1">
         <v>990.1</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="1">
         <v>300</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="1">
         <v>16.5</v>
       </c>
       <c r="F125">
@@ -3323,13 +3329,13 @@
       <c r="B126">
         <v>314.3</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="1">
         <v>999.9</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="1">
         <v>300</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="1">
         <v>19.100000000000001</v>
       </c>
       <c r="F126">
@@ -3346,13 +3352,13 @@
       <c r="B127">
         <v>349.4</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="1">
         <v>1008</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="1">
         <v>302</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="1">
         <v>21.1</v>
       </c>
       <c r="F127">
@@ -3369,13 +3375,13 @@
       <c r="B128">
         <v>392.7</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="1">
         <v>1015.9</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="1">
         <v>303</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="1">
         <v>24.4</v>
       </c>
       <c r="F128">
@@ -3392,13 +3398,13 @@
       <c r="B129">
         <v>437</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="1">
         <v>1026.0999999999999</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="1">
         <v>305.39999999999998</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="1">
         <v>26.9</v>
       </c>
       <c r="F129">
@@ -3415,13 +3421,6033 @@
       <c r="B130">
         <v>486.7</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="1">
         <v>1036.3</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="1">
         <v>308.5</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="1">
+        <v>30</v>
+      </c>
+      <c r="F130">
+        <v>1021884</v>
+      </c>
+      <c r="G130">
+        <v>26721</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B3352E-666A-F149-B9A7-6607EA010E78}">
+  <dimension ref="A1:G130"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1">
+        <v>127</v>
+      </c>
+      <c r="D2" s="1">
+        <v>76</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>473</v>
+      </c>
+      <c r="G2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1">
+        <v>152.4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>88.7</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F3">
+        <v>834</v>
+      </c>
+      <c r="G3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1">
+        <v>177.8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>101.2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="F4">
+        <v>1356</v>
+      </c>
+      <c r="G4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>23.1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>203.2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>101.8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="F5">
+        <v>2105</v>
+      </c>
+      <c r="G5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>25.1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>203.2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>133.19999999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="F6">
+        <v>2340</v>
+      </c>
+      <c r="G6">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
+        <v>206.8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>133.9</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="F7">
+        <v>2896</v>
+      </c>
+      <c r="G7">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1">
+        <v>254</v>
+      </c>
+      <c r="D8" s="1">
+        <v>101.6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="F8">
+        <v>2841</v>
+      </c>
+      <c r="G8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>25.2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>257.2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>101.9</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>3415</v>
+      </c>
+      <c r="G9">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>28.3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>260.39999999999998</v>
+      </c>
+      <c r="D10" s="1">
+        <v>102.2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="F10">
+        <v>4005</v>
+      </c>
+      <c r="G10">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>31.1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>251.4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>146.1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>4413</v>
+      </c>
+      <c r="G11">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1">
+        <v>256</v>
+      </c>
+      <c r="D12" s="1">
+        <v>146.4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="F12">
+        <v>5537</v>
+      </c>
+      <c r="G12">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1">
+        <v>259.60000000000002</v>
+      </c>
+      <c r="D13" s="1">
+        <v>147.30000000000001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F13">
+        <v>6544</v>
+      </c>
+      <c r="G13">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>24.8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>305.10000000000002</v>
+      </c>
+      <c r="D14" s="1">
+        <v>101.6</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="F14">
+        <v>4455</v>
+      </c>
+      <c r="G14">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>28.2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>308.7</v>
+      </c>
+      <c r="D15" s="1">
+        <v>101.8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>5366</v>
+      </c>
+      <c r="G15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="C16" s="1">
+        <v>312.7</v>
+      </c>
+      <c r="D16" s="1">
+        <v>102.4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="F16">
+        <v>6501</v>
+      </c>
+      <c r="G16">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1">
+        <v>304.39999999999998</v>
+      </c>
+      <c r="D17" s="1">
+        <v>123.4</v>
+      </c>
+      <c r="E17" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="F17">
+        <v>7171</v>
+      </c>
+      <c r="G17">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>41.9</v>
+      </c>
+      <c r="C18" s="1">
+        <v>307.2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>124.3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>8196</v>
+      </c>
+      <c r="G18">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>48.1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>311</v>
+      </c>
+      <c r="D19" s="1">
+        <v>125.3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>9575</v>
+      </c>
+      <c r="G19">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="C20" s="1">
+        <v>303.39999999999998</v>
+      </c>
+      <c r="D20" s="1">
+        <v>165</v>
+      </c>
+      <c r="E20" s="1">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>8503</v>
+      </c>
+      <c r="G20">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>46.1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>306.60000000000002</v>
+      </c>
+      <c r="D21" s="1">
+        <v>165.7</v>
+      </c>
+      <c r="E21" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="F21">
+        <v>9899</v>
+      </c>
+      <c r="G21">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1">
+        <v>310.39999999999998</v>
+      </c>
+      <c r="D22" s="1">
+        <v>166.9</v>
+      </c>
+      <c r="E22" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="F22">
+        <v>11696</v>
+      </c>
+      <c r="G22">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1">
+        <v>351.4</v>
+      </c>
+      <c r="D23" s="1">
+        <v>171.11</v>
+      </c>
+      <c r="E23" s="1">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>12195</v>
+      </c>
+      <c r="G23">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>51</v>
+      </c>
+      <c r="C24" s="1">
+        <v>355</v>
+      </c>
+      <c r="D24" s="1">
+        <v>171.5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F24">
+        <v>14265</v>
+      </c>
+      <c r="G24">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>57</v>
+      </c>
+      <c r="C25" s="1">
+        <v>358</v>
+      </c>
+      <c r="D25" s="1">
+        <v>172.2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="F25">
+        <v>16168</v>
+      </c>
+      <c r="G25">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="C26" s="1">
+        <v>363.4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>173.2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="F26">
+        <v>19592</v>
+      </c>
+      <c r="G26">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>39</v>
+      </c>
+      <c r="C27" s="1">
+        <v>398</v>
+      </c>
+      <c r="D27" s="1">
+        <v>141.80000000000001</v>
+      </c>
+      <c r="E27" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="F27">
+        <v>12679</v>
+      </c>
+      <c r="G27">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>46</v>
+      </c>
+      <c r="C28" s="1">
+        <v>403.2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>142.19999999999999</v>
+      </c>
+      <c r="E28" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="F28">
+        <v>15856</v>
+      </c>
+      <c r="G28">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>53.3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>406.6</v>
+      </c>
+      <c r="D29" s="1">
+        <v>143.30000000000001</v>
+      </c>
+      <c r="E29" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="F29">
+        <v>18454</v>
+      </c>
+      <c r="G29">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>54.1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>402.6</v>
+      </c>
+      <c r="D30" s="1">
+        <v>177.7</v>
+      </c>
+      <c r="E30" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="F30">
+        <v>18893</v>
+      </c>
+      <c r="G30">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>60.1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>406.4</v>
+      </c>
+      <c r="D31" s="1">
+        <v>177.9</v>
+      </c>
+      <c r="E31" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="F31">
+        <v>21767</v>
+      </c>
+      <c r="G31">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="C32" s="1">
+        <v>409.4</v>
+      </c>
+      <c r="D32" s="1">
+        <v>178.8</v>
+      </c>
+      <c r="E32" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F32">
+        <v>24502</v>
+      </c>
+      <c r="G32">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>74.2</v>
+      </c>
+      <c r="C33" s="1">
+        <v>412.8</v>
+      </c>
+      <c r="D33" s="1">
+        <v>179.5</v>
+      </c>
+      <c r="E33" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="F33">
+        <v>27481</v>
+      </c>
+      <c r="G33">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>85.3</v>
+      </c>
+      <c r="C34" s="1">
+        <v>417.2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>181.8</v>
+      </c>
+      <c r="E34" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="F34">
+        <v>31874</v>
+      </c>
+      <c r="G34">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>52.3</v>
+      </c>
+      <c r="C35" s="1">
+        <v>449.8</v>
+      </c>
+      <c r="D35" s="1">
+        <v>152.4</v>
+      </c>
+      <c r="E35" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="F35">
+        <v>21586</v>
+      </c>
+      <c r="G35">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>59.8</v>
+      </c>
+      <c r="C36" s="1">
+        <v>454.6</v>
+      </c>
+      <c r="D36" s="1">
+        <v>152.9</v>
+      </c>
+      <c r="E36" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="F36">
+        <v>25717</v>
+      </c>
+      <c r="G36">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>67.2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>458</v>
+      </c>
+      <c r="D37" s="1">
+        <v>153.80000000000001</v>
+      </c>
+      <c r="E37" s="1">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <v>29144</v>
+      </c>
+      <c r="G37">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>74.2</v>
+      </c>
+      <c r="C38" s="1">
+        <v>462</v>
+      </c>
+      <c r="D38" s="1">
+        <v>154.4</v>
+      </c>
+      <c r="E38" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="F38">
+        <v>32891</v>
+      </c>
+      <c r="G38">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>82.1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>465.8</v>
+      </c>
+      <c r="D39" s="1">
+        <v>155.30000000000001</v>
+      </c>
+      <c r="E39" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="F39">
+        <v>36806</v>
+      </c>
+      <c r="G39">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="C40" s="1">
+        <v>453.4</v>
+      </c>
+      <c r="D40" s="1">
+        <v>189.9</v>
+      </c>
+      <c r="E40" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="F40">
+        <v>29597</v>
+      </c>
+      <c r="G40">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>74.3</v>
+      </c>
+      <c r="C41" s="1">
+        <v>457</v>
+      </c>
+      <c r="D41" s="1">
+        <v>190.4</v>
+      </c>
+      <c r="E41" s="1">
+        <v>9</v>
+      </c>
+      <c r="F41">
+        <v>33536</v>
+      </c>
+      <c r="G41">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>82</v>
+      </c>
+      <c r="C42" s="1">
+        <v>460</v>
+      </c>
+      <c r="D42" s="1">
+        <v>191.3</v>
+      </c>
+      <c r="E42" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="F42">
+        <v>37268</v>
+      </c>
+      <c r="G42">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>89.3</v>
+      </c>
+      <c r="C43" s="1">
+        <v>463.4</v>
+      </c>
+      <c r="D43" s="1">
+        <v>191.9</v>
+      </c>
+      <c r="E43" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="F43">
+        <v>41232</v>
+      </c>
+      <c r="G43">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>98.3</v>
+      </c>
+      <c r="C44" s="1">
+        <v>467.2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>192.8</v>
+      </c>
+      <c r="E44" s="1">
+        <v>11.4</v>
+      </c>
+      <c r="F44">
+        <v>459944</v>
+      </c>
+      <c r="G44">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>105.8</v>
+      </c>
+      <c r="C45" s="1">
+        <v>469.2</v>
+      </c>
+      <c r="D45" s="1">
+        <v>194</v>
+      </c>
+      <c r="E45" s="1">
+        <v>12.6</v>
+      </c>
+      <c r="F45">
+        <v>49090</v>
+      </c>
+      <c r="G45">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="C46" s="1">
+        <v>480.6</v>
+      </c>
+      <c r="D46" s="1">
+        <v>196.7</v>
+      </c>
+      <c r="E46" s="1">
+        <v>15.3</v>
+      </c>
+      <c r="F46">
+        <v>64058</v>
+      </c>
+      <c r="G46">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>161.4</v>
+      </c>
+      <c r="C47" s="1">
+        <v>492</v>
+      </c>
+      <c r="D47" s="1">
+        <v>199.4</v>
+      </c>
+      <c r="E47" s="1">
+        <v>18</v>
+      </c>
+      <c r="F47">
+        <v>7996</v>
+      </c>
+      <c r="G47">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>113</v>
+      </c>
+      <c r="C48" s="1">
+        <v>463</v>
+      </c>
+      <c r="D48" s="1">
+        <v>280</v>
+      </c>
+      <c r="E48" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="F48">
+        <v>56724</v>
+      </c>
+      <c r="G48">
+        <v>6338</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>123</v>
+      </c>
+      <c r="C49" s="1">
+        <v>467</v>
+      </c>
+      <c r="D49" s="1">
+        <v>282</v>
+      </c>
+      <c r="E49" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="F49">
+        <v>64820</v>
+      </c>
+      <c r="G49">
+        <v>7337</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>144</v>
+      </c>
+      <c r="C50" s="1">
+        <v>472</v>
+      </c>
+      <c r="D50" s="1">
+        <v>283</v>
+      </c>
+      <c r="E50" s="1">
+        <v>13.6</v>
+      </c>
+      <c r="F50">
+        <v>73727</v>
+      </c>
+      <c r="G50">
+        <v>8362</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>158</v>
+      </c>
+      <c r="C51" s="1">
+        <v>476</v>
+      </c>
+      <c r="D51" s="1">
+        <v>284</v>
+      </c>
+      <c r="E51" s="1">
+        <v>15</v>
+      </c>
+      <c r="F51">
+        <v>80756</v>
+      </c>
+      <c r="G51">
+        <v>9142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>177</v>
+      </c>
+      <c r="C52" s="1">
+        <v>482</v>
+      </c>
+      <c r="D52" s="1">
+        <v>286</v>
+      </c>
+      <c r="E52" s="1">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F52">
+        <v>92134</v>
+      </c>
+      <c r="G52">
+        <v>10511</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>193</v>
+      </c>
+      <c r="C53" s="1">
+        <v>489</v>
+      </c>
+      <c r="D53" s="1">
+        <v>283</v>
+      </c>
+      <c r="E53" s="1">
+        <v>17</v>
+      </c>
+      <c r="F53">
+        <v>103476</v>
+      </c>
+      <c r="G53">
+        <v>11545</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>213</v>
+      </c>
+      <c r="C54" s="1">
+        <v>495</v>
+      </c>
+      <c r="D54" s="1">
+        <v>285</v>
+      </c>
+      <c r="E54" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="F54">
+        <v>115446</v>
+      </c>
+      <c r="G54">
+        <v>12954</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>235</v>
+      </c>
+      <c r="C55" s="1">
+        <v>501</v>
+      </c>
+      <c r="D55" s="1">
+        <v>287</v>
+      </c>
+      <c r="E55" s="1">
+        <v>20.6</v>
+      </c>
+      <c r="F55">
+        <v>128452</v>
+      </c>
+      <c r="G55">
+        <v>14459</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>260</v>
+      </c>
+      <c r="C56" s="1">
+        <v>509</v>
+      </c>
+      <c r="D56" s="1">
+        <v>289</v>
+      </c>
+      <c r="E56" s="1">
+        <v>22.6</v>
+      </c>
+      <c r="F56">
+        <v>144803</v>
+      </c>
+      <c r="G56">
+        <v>16306</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>286</v>
+      </c>
+      <c r="C57" s="1">
+        <v>517</v>
+      </c>
+      <c r="D57" s="1">
+        <v>291</v>
+      </c>
+      <c r="E57" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="F57">
+        <v>162187</v>
+      </c>
+      <c r="G57">
+        <v>18297</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>315</v>
+      </c>
+      <c r="C58" s="1">
+        <v>525</v>
+      </c>
+      <c r="D58" s="1">
+        <v>293</v>
+      </c>
+      <c r="E58" s="1">
+        <v>26.9</v>
+      </c>
+      <c r="F58">
+        <v>180967</v>
+      </c>
+      <c r="G58">
+        <v>20414</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>65.7</v>
+      </c>
+      <c r="C59" s="1">
+        <v>524.70000000000005</v>
+      </c>
+      <c r="D59" s="1">
+        <v>165.1</v>
+      </c>
+      <c r="E59" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="F59">
+        <v>35028</v>
+      </c>
+      <c r="G59">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>74.7</v>
+      </c>
+      <c r="C60" s="1">
+        <v>529.1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>165.9</v>
+      </c>
+      <c r="E60" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F60">
+        <v>41058</v>
+      </c>
+      <c r="G60">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>84.8</v>
+      </c>
+      <c r="C61" s="1">
+        <v>534.9</v>
+      </c>
+      <c r="D61" s="1">
+        <v>166.5</v>
+      </c>
+      <c r="E61" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="F61">
+        <v>48631</v>
+      </c>
+      <c r="G61">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>82.2</v>
+      </c>
+      <c r="C62" s="1">
+        <v>528.29999999999995</v>
+      </c>
+      <c r="D62" s="1">
+        <v>208.8</v>
+      </c>
+      <c r="E62" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="F62">
+        <v>47539</v>
+      </c>
+      <c r="G62">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>92.1</v>
+      </c>
+      <c r="C63" s="1">
+        <v>533.1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>209.3</v>
+      </c>
+      <c r="E63" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="F63">
+        <v>55227</v>
+      </c>
+      <c r="G63">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>101</v>
+      </c>
+      <c r="C64" s="1">
+        <v>536.70000000000005</v>
+      </c>
+      <c r="D64" s="1">
+        <v>210</v>
+      </c>
+      <c r="E64" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="F64">
+        <v>61519</v>
+      </c>
+      <c r="G64">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>109</v>
+      </c>
+      <c r="C65" s="1">
+        <v>539.5</v>
+      </c>
+      <c r="D65" s="1">
+        <v>210.8</v>
+      </c>
+      <c r="E65" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="F65">
+        <v>66822</v>
+      </c>
+      <c r="G65">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>122</v>
+      </c>
+      <c r="C66" s="1">
+        <v>544.5</v>
+      </c>
+      <c r="D66" s="1">
+        <v>211.9</v>
+      </c>
+      <c r="E66" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="F66">
+        <v>76043</v>
+      </c>
+      <c r="G66">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>138.30000000000001</v>
+      </c>
+      <c r="C67" s="1">
+        <v>549.1</v>
+      </c>
+      <c r="D67" s="1">
+        <v>213.9</v>
+      </c>
+      <c r="E67" s="1">
+        <v>14.7</v>
+      </c>
+      <c r="F67">
+        <v>86088</v>
+      </c>
+      <c r="G67">
+        <v>3864</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>150.6</v>
+      </c>
+      <c r="C68" s="1">
+        <v>542.5</v>
+      </c>
+      <c r="D68" s="1">
+        <v>312</v>
+      </c>
+      <c r="E68" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="F68">
+        <v>100633</v>
+      </c>
+      <c r="G68">
+        <v>10285</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>165</v>
+      </c>
+      <c r="C69" s="1">
+        <v>546</v>
+      </c>
+      <c r="D69" s="1">
+        <v>313</v>
+      </c>
+      <c r="E69" s="1">
+        <v>14</v>
+      </c>
+      <c r="F69">
+        <v>110955</v>
+      </c>
+      <c r="G69">
+        <v>11359</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>181.5</v>
+      </c>
+      <c r="C70" s="1">
+        <v>550.70000000000005</v>
+      </c>
+      <c r="D70" s="1">
+        <v>314.5</v>
+      </c>
+      <c r="E70" s="1">
+        <v>15.2</v>
+      </c>
+      <c r="F70">
+        <v>123222</v>
+      </c>
+      <c r="G70">
+        <v>12667</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>196</v>
+      </c>
+      <c r="C71" s="1">
+        <v>554</v>
+      </c>
+      <c r="D71" s="1">
+        <v>316</v>
+      </c>
+      <c r="E71" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="F71">
+        <v>133993</v>
+      </c>
+      <c r="G71">
+        <v>13852</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>218.7</v>
+      </c>
+      <c r="C72" s="1">
+        <v>560.29999999999995</v>
+      </c>
+      <c r="D72" s="1">
+        <v>317.39999999999998</v>
+      </c>
+      <c r="E72" s="1">
+        <v>18.3</v>
+      </c>
+      <c r="F72">
+        <v>150976</v>
+      </c>
+      <c r="G72">
+        <v>15589</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>248</v>
+      </c>
+      <c r="C73" s="1">
+        <v>571</v>
+      </c>
+      <c r="D73" s="1">
+        <v>315</v>
+      </c>
+      <c r="E73" s="1">
+        <v>19</v>
+      </c>
+      <c r="F73">
+        <v>177499</v>
+      </c>
+      <c r="G73">
+        <v>18003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>273.2</v>
+      </c>
+      <c r="C74" s="1">
+        <v>577.1</v>
+      </c>
+      <c r="D74" s="1">
+        <v>320.2</v>
+      </c>
+      <c r="E74" s="1">
+        <v>21.1</v>
+      </c>
+      <c r="F74">
+        <v>198578</v>
+      </c>
+      <c r="G74">
+        <v>20615</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>81.8</v>
+      </c>
+      <c r="C75" s="1">
+        <v>598.6</v>
+      </c>
+      <c r="D75" s="1">
+        <v>177.9</v>
+      </c>
+      <c r="E75" s="1">
+        <v>10</v>
+      </c>
+      <c r="F75">
+        <v>57487</v>
+      </c>
+      <c r="G75">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>92.2</v>
+      </c>
+      <c r="C76" s="1">
+        <v>603</v>
+      </c>
+      <c r="D76" s="1">
+        <v>178.8</v>
+      </c>
+      <c r="E76" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="F76">
+        <v>66195</v>
+      </c>
+      <c r="G76">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>100.3</v>
+      </c>
+      <c r="C77" s="1">
+        <v>607.4</v>
+      </c>
+      <c r="D77" s="1">
+        <v>179.2</v>
+      </c>
+      <c r="E77" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="F77">
+        <v>74145</v>
+      </c>
+      <c r="G77">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>101.2</v>
+      </c>
+      <c r="C78" s="1">
+        <v>602.6</v>
+      </c>
+      <c r="D78" s="1">
+        <v>227.6</v>
+      </c>
+      <c r="E78" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="F78">
+        <v>77398</v>
+      </c>
+      <c r="G78">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>113</v>
+      </c>
+      <c r="C79" s="1">
+        <v>607.6</v>
+      </c>
+      <c r="D79" s="1">
+        <v>228.2</v>
+      </c>
+      <c r="E79" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="F79">
+        <v>88936</v>
+      </c>
+      <c r="G79">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>125.1</v>
+      </c>
+      <c r="C80" s="1">
+        <v>612.20000000000005</v>
+      </c>
+      <c r="D80" s="1">
+        <v>229</v>
+      </c>
+      <c r="E80" s="1">
+        <v>11.9</v>
+      </c>
+      <c r="F80">
+        <v>100228</v>
+      </c>
+      <c r="G80">
+        <v>3935</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>139.9</v>
+      </c>
+      <c r="C81" s="1">
+        <v>617.20000000000005</v>
+      </c>
+      <c r="D81" s="1">
+        <v>230.2</v>
+      </c>
+      <c r="E81" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="F81">
+        <v>113395</v>
+      </c>
+      <c r="G81">
+        <v>4509</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="C82" s="1">
+        <v>612.4</v>
+      </c>
+      <c r="D82" s="1">
+        <v>304.8</v>
+      </c>
+      <c r="E82" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="F82">
+        <v>126738</v>
+      </c>
+      <c r="G82">
+        <v>9309</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>179</v>
+      </c>
+      <c r="C83" s="1">
+        <v>620.20000000000005</v>
+      </c>
+      <c r="D83" s="1">
+        <v>307.10000000000002</v>
+      </c>
+      <c r="E83" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="F83">
+        <v>153886</v>
+      </c>
+      <c r="G83">
+        <v>11410</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>238.1</v>
+      </c>
+      <c r="C84" s="1">
+        <v>635.79999999999995</v>
+      </c>
+      <c r="D84" s="1">
+        <v>311.39999999999998</v>
+      </c>
+      <c r="E84" s="1">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F84">
+        <v>210333</v>
+      </c>
+      <c r="G84">
+        <v>15839</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>155</v>
+      </c>
+      <c r="C85" s="1">
+        <v>611</v>
+      </c>
+      <c r="D85" s="1">
+        <v>324</v>
+      </c>
+      <c r="E85" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="F85">
+        <v>130552</v>
+      </c>
+      <c r="G85">
+        <v>10785</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>174</v>
+      </c>
+      <c r="C86" s="1">
+        <v>616</v>
+      </c>
+      <c r="D86" s="1">
+        <v>325</v>
+      </c>
+      <c r="E86" s="1">
+        <v>14</v>
+      </c>
+      <c r="F86">
+        <v>148722</v>
+      </c>
+      <c r="G86">
+        <v>12376</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>195</v>
+      </c>
+      <c r="C87" s="1">
+        <v>622</v>
+      </c>
+      <c r="D87" s="1">
+        <v>327</v>
+      </c>
+      <c r="E87" s="1">
+        <v>15.4</v>
+      </c>
+      <c r="F87">
+        <v>169453</v>
+      </c>
+      <c r="G87">
+        <v>14242</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>217</v>
+      </c>
+      <c r="C88" s="1">
+        <v>628</v>
+      </c>
+      <c r="D88" s="1">
+        <v>328</v>
+      </c>
+      <c r="E88" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="F88">
+        <v>192362</v>
+      </c>
+      <c r="G88">
+        <v>16319</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>241</v>
+      </c>
+      <c r="C89" s="1">
+        <v>635</v>
+      </c>
+      <c r="D89" s="1">
+        <v>329</v>
+      </c>
+      <c r="E89" s="1">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="F89">
+        <v>216996</v>
+      </c>
+      <c r="G89">
+        <v>18433</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>262</v>
+      </c>
+      <c r="C90" s="1">
+        <v>641</v>
+      </c>
+      <c r="D90" s="1">
+        <v>327</v>
+      </c>
+      <c r="E90" s="1">
+        <v>19</v>
+      </c>
+      <c r="F90">
+        <v>237554</v>
+      </c>
+      <c r="G90">
+        <v>19854</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>285</v>
+      </c>
+      <c r="C91" s="1">
+        <v>647</v>
+      </c>
+      <c r="D91" s="1">
+        <v>329</v>
+      </c>
+      <c r="E91" s="1">
+        <v>20.6</v>
+      </c>
+      <c r="F91">
+        <v>262288</v>
+      </c>
+      <c r="G91">
+        <v>22069</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>307</v>
+      </c>
+      <c r="C92" s="1">
+        <v>653</v>
+      </c>
+      <c r="D92" s="1">
+        <v>330</v>
+      </c>
+      <c r="E92" s="1">
+        <v>22.1</v>
+      </c>
+      <c r="F92">
+        <v>285253</v>
+      </c>
+      <c r="G92">
+        <v>23958</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>341</v>
+      </c>
+      <c r="C93" s="1">
+        <v>661</v>
+      </c>
+      <c r="D93" s="1">
+        <v>333</v>
+      </c>
+      <c r="E93" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="F93">
+        <v>319846</v>
+      </c>
+      <c r="G93">
+        <v>27097</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>372</v>
+      </c>
+      <c r="C94" s="1">
+        <v>669</v>
+      </c>
+      <c r="D94" s="1">
+        <v>335</v>
+      </c>
+      <c r="E94" s="1">
+        <v>26.4</v>
+      </c>
+      <c r="F94">
+        <v>354794</v>
+      </c>
+      <c r="G94">
+        <v>30175</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>125.2</v>
+      </c>
+      <c r="C95" s="1">
+        <v>677.9</v>
+      </c>
+      <c r="D95" s="1">
+        <v>253</v>
+      </c>
+      <c r="E95" s="1">
+        <v>11.7</v>
+      </c>
+      <c r="F95">
+        <v>119448</v>
+      </c>
+      <c r="G95">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>140.1</v>
+      </c>
+      <c r="C96" s="1">
+        <v>683.5</v>
+      </c>
+      <c r="D96" s="1">
+        <v>253.7</v>
+      </c>
+      <c r="E96" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="F96">
+        <v>137723</v>
+      </c>
+      <c r="G96">
+        <v>5186</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>152.4</v>
+      </c>
+      <c r="C97" s="1">
+        <v>687.5</v>
+      </c>
+      <c r="D97" s="1">
+        <v>254.5</v>
+      </c>
+      <c r="E97" s="1">
+        <v>13.2</v>
+      </c>
+      <c r="F97">
+        <v>151811</v>
+      </c>
+      <c r="G97">
+        <v>5786</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>170.2</v>
+      </c>
+      <c r="C98" s="1">
+        <v>692.9</v>
+      </c>
+      <c r="D98" s="1">
+        <v>255.8</v>
+      </c>
+      <c r="E98" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="F98">
+        <v>171782</v>
+      </c>
+      <c r="G98">
+        <v>6633</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>192.6</v>
+      </c>
+      <c r="C99" s="1">
+        <v>702</v>
+      </c>
+      <c r="D99" s="1">
+        <v>254</v>
+      </c>
+      <c r="E99" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="F99">
+        <v>199444</v>
+      </c>
+      <c r="G99">
+        <v>7646</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>133.9</v>
+      </c>
+      <c r="C100" s="1">
+        <v>750</v>
+      </c>
+      <c r="D100" s="1">
+        <v>264.39999999999998</v>
+      </c>
+      <c r="E100" s="1">
+        <v>12</v>
+      </c>
+      <c r="F100">
+        <v>152061</v>
+      </c>
+      <c r="G100">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>146.9</v>
+      </c>
+      <c r="C101" s="1">
+        <v>754</v>
+      </c>
+      <c r="D101" s="1">
+        <v>265.2</v>
+      </c>
+      <c r="E101" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="F101">
+        <v>169871</v>
+      </c>
+      <c r="G101">
+        <v>5457</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>161</v>
+      </c>
+      <c r="C102" s="1">
+        <v>758</v>
+      </c>
+      <c r="D102" s="1">
+        <v>266</v>
+      </c>
+      <c r="E102" s="1">
+        <v>13.8</v>
+      </c>
+      <c r="F102">
+        <v>187252</v>
+      </c>
+      <c r="G102">
+        <v>6075</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>173</v>
+      </c>
+      <c r="C103" s="1">
+        <v>762.2</v>
+      </c>
+      <c r="D103" s="1">
+        <v>266.7</v>
+      </c>
+      <c r="E103" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="F103">
+        <v>206651</v>
+      </c>
+      <c r="G103">
+        <v>6852</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>185</v>
+      </c>
+      <c r="C104" s="1">
+        <v>766</v>
+      </c>
+      <c r="D104" s="1">
+        <v>267</v>
+      </c>
+      <c r="E104" s="1">
+        <v>14.9</v>
+      </c>
+      <c r="F104">
+        <v>224146</v>
+      </c>
+      <c r="G104">
+        <v>7512</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>196.8</v>
+      </c>
+      <c r="C105" s="1">
+        <v>769.8</v>
+      </c>
+      <c r="D105" s="1">
+        <v>268</v>
+      </c>
+      <c r="E105" s="1">
+        <v>15.6</v>
+      </c>
+      <c r="F105">
+        <v>241326</v>
+      </c>
+      <c r="G105">
+        <v>8177</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>175.9</v>
+      </c>
+      <c r="C106" s="1">
+        <v>834.9</v>
+      </c>
+      <c r="D106" s="1">
+        <v>291.7</v>
+      </c>
+      <c r="E106" s="1">
+        <v>14</v>
+      </c>
+      <c r="F106">
+        <v>247120</v>
+      </c>
+      <c r="G106">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>193.8</v>
+      </c>
+      <c r="C107" s="1">
+        <v>840.7</v>
+      </c>
+      <c r="D107" s="1">
+        <v>292.39999999999998</v>
+      </c>
+      <c r="E107" s="1">
+        <v>14.7</v>
+      </c>
+      <c r="F107">
+        <v>280274</v>
+      </c>
+      <c r="G107">
+        <v>9068</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>210</v>
+      </c>
+      <c r="C108" s="1">
+        <v>846</v>
+      </c>
+      <c r="D108" s="1">
+        <v>293</v>
+      </c>
+      <c r="E108" s="1">
+        <v>15.4</v>
+      </c>
+      <c r="F108">
+        <v>311719</v>
+      </c>
+      <c r="G108">
+        <v>10259</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>226.5</v>
+      </c>
+      <c r="C109" s="1">
+        <v>850.9</v>
+      </c>
+      <c r="D109" s="1">
+        <v>293.8</v>
+      </c>
+      <c r="E109" s="1">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F109">
+        <v>340802</v>
+      </c>
+      <c r="G109">
+        <v>11361</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>250.7</v>
+      </c>
+      <c r="C110" s="1">
+        <v>859</v>
+      </c>
+      <c r="D110" s="1">
+        <v>292.10000000000002</v>
+      </c>
+      <c r="E110" s="1">
+        <v>17</v>
+      </c>
+      <c r="F110">
+        <v>387599</v>
+      </c>
+      <c r="G110">
+        <v>12916</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>200.9</v>
+      </c>
+      <c r="C111" s="1">
+        <v>903</v>
+      </c>
+      <c r="D111" s="1">
+        <v>303.3</v>
+      </c>
+      <c r="E111" s="1">
+        <v>15.1</v>
+      </c>
+      <c r="F111">
+        <v>325254</v>
+      </c>
+      <c r="G111">
+        <v>9423</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>224.2</v>
+      </c>
+      <c r="C112" s="1">
+        <v>910.4</v>
+      </c>
+      <c r="D112" s="1">
+        <v>304.10000000000002</v>
+      </c>
+      <c r="E112" s="1">
+        <v>15.9</v>
+      </c>
+      <c r="F112">
+        <v>376414</v>
+      </c>
+      <c r="G112">
+        <v>11236</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>238.3</v>
+      </c>
+      <c r="C113" s="1">
+        <v>915</v>
+      </c>
+      <c r="D113" s="1">
+        <v>305</v>
+      </c>
+      <c r="E113" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="F113">
+        <v>406472</v>
+      </c>
+      <c r="G113">
+        <v>12285</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>253.4</v>
+      </c>
+      <c r="C114" s="1">
+        <v>918.4</v>
+      </c>
+      <c r="D114" s="1">
+        <v>305.5</v>
+      </c>
+      <c r="E114" s="1">
+        <v>17.3</v>
+      </c>
+      <c r="F114">
+        <v>436305</v>
+      </c>
+      <c r="G114">
+        <v>13301</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>271</v>
+      </c>
+      <c r="C115" s="1">
+        <v>923</v>
+      </c>
+      <c r="D115" s="1">
+        <v>307</v>
+      </c>
+      <c r="E115" s="1">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F115">
+        <v>471633</v>
+      </c>
+      <c r="G115">
+        <v>14518</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>289.10000000000002</v>
+      </c>
+      <c r="C116" s="1">
+        <v>926.6</v>
+      </c>
+      <c r="D116" s="1">
+        <v>307.7</v>
+      </c>
+      <c r="E116" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="F116">
+        <v>504187</v>
+      </c>
+      <c r="G116">
+        <v>15597</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>313</v>
+      </c>
+      <c r="C117" s="1">
+        <v>932</v>
+      </c>
+      <c r="D117" s="1">
+        <v>309</v>
+      </c>
+      <c r="E117" s="1">
+        <v>21.1</v>
+      </c>
+      <c r="F117">
+        <v>548297</v>
+      </c>
+      <c r="G117">
+        <v>17039</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>345.1</v>
+      </c>
+      <c r="C118" s="1">
+        <v>943</v>
+      </c>
+      <c r="D118" s="1">
+        <v>308</v>
+      </c>
+      <c r="E118" s="1">
+        <v>22.1</v>
+      </c>
+      <c r="F118">
+        <v>625645</v>
+      </c>
+      <c r="G118">
+        <v>19515</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>381.5</v>
+      </c>
+      <c r="C119" s="1">
+        <v>950.7</v>
+      </c>
+      <c r="D119" s="1">
+        <v>310.3</v>
+      </c>
+      <c r="E119" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="F119">
+        <v>697408</v>
+      </c>
+      <c r="G119">
+        <v>21975</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>343.3</v>
+      </c>
+      <c r="C120" s="1">
+        <v>911.8</v>
+      </c>
+      <c r="D120" s="1">
+        <v>418.5</v>
+      </c>
+      <c r="E120" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F120">
+        <v>625780</v>
+      </c>
+      <c r="G120">
+        <v>39156</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>365</v>
+      </c>
+      <c r="C121" s="1">
+        <v>916</v>
+      </c>
+      <c r="D121" s="1">
+        <v>419.4</v>
+      </c>
+      <c r="E121" s="1">
+        <v>20.3</v>
+      </c>
+      <c r="F121">
+        <v>671104</v>
+      </c>
+      <c r="G121">
+        <v>42245</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>388</v>
+      </c>
+      <c r="C122" s="1">
+        <v>921</v>
+      </c>
+      <c r="D122" s="1">
+        <v>420.5</v>
+      </c>
+      <c r="E122" s="1">
+        <v>21.4</v>
+      </c>
+      <c r="F122">
+        <v>719635</v>
+      </c>
+      <c r="G122">
+        <v>45438</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>222</v>
+      </c>
+      <c r="C123" s="1">
+        <v>970.3</v>
+      </c>
+      <c r="D123" s="1">
+        <v>300</v>
+      </c>
+      <c r="E123" s="1">
+        <v>16</v>
+      </c>
+      <c r="F123">
+        <v>407961</v>
+      </c>
+      <c r="G123">
+        <v>9546</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>248.7</v>
+      </c>
+      <c r="C124" s="1">
+        <v>980.1</v>
+      </c>
+      <c r="D124" s="1">
+        <v>300</v>
+      </c>
+      <c r="E124" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="F124">
+        <v>481192</v>
+      </c>
+      <c r="G124">
+        <v>11754</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>272.3</v>
+      </c>
+      <c r="C125" s="1">
+        <v>990.1</v>
+      </c>
+      <c r="D125" s="1">
+        <v>300</v>
+      </c>
+      <c r="E125" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="F125">
+        <v>553974</v>
+      </c>
+      <c r="G125">
+        <v>14004</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>314.3</v>
+      </c>
+      <c r="C126" s="1">
+        <v>999.9</v>
+      </c>
+      <c r="D126" s="1">
+        <v>300</v>
+      </c>
+      <c r="E126" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F126">
+        <v>644063</v>
+      </c>
+      <c r="G126">
+        <v>16232</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>349.4</v>
+      </c>
+      <c r="C127" s="1">
+        <v>1008</v>
+      </c>
+      <c r="D127" s="1">
+        <v>302</v>
+      </c>
+      <c r="E127" s="1">
+        <v>21.1</v>
+      </c>
+      <c r="F127">
+        <v>722965</v>
+      </c>
+      <c r="G127">
+        <v>18460</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>392.7</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1015.9</v>
+      </c>
+      <c r="D128" s="1">
+        <v>303</v>
+      </c>
+      <c r="E128" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="F128">
+        <v>807503</v>
+      </c>
+      <c r="G128">
+        <v>20496</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>437</v>
+      </c>
+      <c r="C129" s="1">
+        <v>1026.0999999999999</v>
+      </c>
+      <c r="D129" s="1">
+        <v>305.39999999999998</v>
+      </c>
+      <c r="E129" s="1">
+        <v>26.9</v>
+      </c>
+      <c r="F129">
+        <v>910322</v>
+      </c>
+      <c r="G129">
+        <v>23447</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>486.7</v>
+      </c>
+      <c r="C130" s="1">
+        <v>1036.3</v>
+      </c>
+      <c r="D130" s="1">
+        <v>308.5</v>
+      </c>
+      <c r="E130" s="1">
+        <v>30</v>
+      </c>
+      <c r="F130">
+        <v>1021884</v>
+      </c>
+      <c r="G130">
+        <v>26721</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC48DA29-5814-AB47-A398-8F38A2082D7B}">
+  <dimension ref="A1:G130"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1">
+        <v>127</v>
+      </c>
+      <c r="D2" s="1">
+        <v>76</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>473</v>
+      </c>
+      <c r="G2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1">
+        <v>152.4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>88.7</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F3">
+        <v>834</v>
+      </c>
+      <c r="G3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1">
+        <v>177.8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>101.2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="F4">
+        <v>1356</v>
+      </c>
+      <c r="G4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>23.1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>203.2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>101.8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="F5">
+        <v>2105</v>
+      </c>
+      <c r="G5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>25.1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>203.2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>133.19999999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="F6">
+        <v>2340</v>
+      </c>
+      <c r="G6">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
+        <v>206.8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>133.9</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="F7">
+        <v>2896</v>
+      </c>
+      <c r="G7">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1">
+        <v>254</v>
+      </c>
+      <c r="D8" s="1">
+        <v>101.6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="F8">
+        <v>2841</v>
+      </c>
+      <c r="G8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>25.2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>257.2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>101.9</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>3415</v>
+      </c>
+      <c r="G9">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>28.3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>260.39999999999998</v>
+      </c>
+      <c r="D10" s="1">
+        <v>102.2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="F10">
+        <v>4005</v>
+      </c>
+      <c r="G10">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>31.1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>251.4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>146.1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>4413</v>
+      </c>
+      <c r="G11">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1">
+        <v>256</v>
+      </c>
+      <c r="D12" s="1">
+        <v>146.4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="F12">
+        <v>5537</v>
+      </c>
+      <c r="G12">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1">
+        <v>259.60000000000002</v>
+      </c>
+      <c r="D13" s="1">
+        <v>147.30000000000001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F13">
+        <v>6544</v>
+      </c>
+      <c r="G13">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>24.8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>305.10000000000002</v>
+      </c>
+      <c r="D14" s="1">
+        <v>101.6</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="F14">
+        <v>4455</v>
+      </c>
+      <c r="G14">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>28.2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>308.7</v>
+      </c>
+      <c r="D15" s="1">
+        <v>101.8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>5366</v>
+      </c>
+      <c r="G15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="C16" s="1">
+        <v>312.7</v>
+      </c>
+      <c r="D16" s="1">
+        <v>102.4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="F16">
+        <v>6501</v>
+      </c>
+      <c r="G16">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1">
+        <v>304.39999999999998</v>
+      </c>
+      <c r="D17" s="1">
+        <v>123.4</v>
+      </c>
+      <c r="E17" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="F17">
+        <v>7171</v>
+      </c>
+      <c r="G17">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>41.9</v>
+      </c>
+      <c r="C18" s="1">
+        <v>307.2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>124.3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>8196</v>
+      </c>
+      <c r="G18">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>48.1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>311</v>
+      </c>
+      <c r="D19" s="1">
+        <v>125.3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>9575</v>
+      </c>
+      <c r="G19">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="C20" s="1">
+        <v>303.39999999999998</v>
+      </c>
+      <c r="D20" s="1">
+        <v>165</v>
+      </c>
+      <c r="E20" s="1">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>8503</v>
+      </c>
+      <c r="G20">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>46.1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>306.60000000000002</v>
+      </c>
+      <c r="D21" s="1">
+        <v>165.7</v>
+      </c>
+      <c r="E21" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="F21">
+        <v>9899</v>
+      </c>
+      <c r="G21">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1">
+        <v>310.39999999999998</v>
+      </c>
+      <c r="D22" s="1">
+        <v>166.9</v>
+      </c>
+      <c r="E22" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="F22">
+        <v>11696</v>
+      </c>
+      <c r="G22">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1">
+        <v>351.4</v>
+      </c>
+      <c r="D23" s="1">
+        <v>171.11</v>
+      </c>
+      <c r="E23" s="1">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>12195</v>
+      </c>
+      <c r="G23">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>51</v>
+      </c>
+      <c r="C24" s="1">
+        <v>355</v>
+      </c>
+      <c r="D24" s="1">
+        <v>171.5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F24">
+        <v>14265</v>
+      </c>
+      <c r="G24">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>57</v>
+      </c>
+      <c r="C25" s="1">
+        <v>358</v>
+      </c>
+      <c r="D25" s="1">
+        <v>172.2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="F25">
+        <v>16168</v>
+      </c>
+      <c r="G25">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="C26" s="1">
+        <v>363.4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>173.2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="F26">
+        <v>19592</v>
+      </c>
+      <c r="G26">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>39</v>
+      </c>
+      <c r="C27" s="1">
+        <v>398</v>
+      </c>
+      <c r="D27" s="1">
+        <v>141.80000000000001</v>
+      </c>
+      <c r="E27" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="F27">
+        <v>12679</v>
+      </c>
+      <c r="G27">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>46</v>
+      </c>
+      <c r="C28" s="1">
+        <v>403.2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>142.19999999999999</v>
+      </c>
+      <c r="E28" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="F28">
+        <v>15856</v>
+      </c>
+      <c r="G28">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>53.3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>406.6</v>
+      </c>
+      <c r="D29" s="1">
+        <v>143.30000000000001</v>
+      </c>
+      <c r="E29" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="F29">
+        <v>18454</v>
+      </c>
+      <c r="G29">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>54.1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>402.6</v>
+      </c>
+      <c r="D30" s="1">
+        <v>177.7</v>
+      </c>
+      <c r="E30" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="F30">
+        <v>18893</v>
+      </c>
+      <c r="G30">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>60.1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>406.4</v>
+      </c>
+      <c r="D31" s="1">
+        <v>177.9</v>
+      </c>
+      <c r="E31" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="F31">
+        <v>21767</v>
+      </c>
+      <c r="G31">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="C32" s="1">
+        <v>409.4</v>
+      </c>
+      <c r="D32" s="1">
+        <v>178.8</v>
+      </c>
+      <c r="E32" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F32">
+        <v>24502</v>
+      </c>
+      <c r="G32">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>74.2</v>
+      </c>
+      <c r="C33" s="1">
+        <v>412.8</v>
+      </c>
+      <c r="D33" s="1">
+        <v>179.5</v>
+      </c>
+      <c r="E33" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="F33">
+        <v>27481</v>
+      </c>
+      <c r="G33">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>85.3</v>
+      </c>
+      <c r="C34" s="1">
+        <v>417.2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>181.8</v>
+      </c>
+      <c r="E34" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="F34">
+        <v>31874</v>
+      </c>
+      <c r="G34">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>52.3</v>
+      </c>
+      <c r="C35" s="1">
+        <v>449.8</v>
+      </c>
+      <c r="D35" s="1">
+        <v>152.4</v>
+      </c>
+      <c r="E35" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="F35">
+        <v>21586</v>
+      </c>
+      <c r="G35">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>59.8</v>
+      </c>
+      <c r="C36" s="1">
+        <v>454.6</v>
+      </c>
+      <c r="D36" s="1">
+        <v>152.9</v>
+      </c>
+      <c r="E36" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="F36">
+        <v>25717</v>
+      </c>
+      <c r="G36">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>67.2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>458</v>
+      </c>
+      <c r="D37" s="1">
+        <v>153.80000000000001</v>
+      </c>
+      <c r="E37" s="1">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <v>29144</v>
+      </c>
+      <c r="G37">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>74.2</v>
+      </c>
+      <c r="C38" s="1">
+        <v>462</v>
+      </c>
+      <c r="D38" s="1">
+        <v>154.4</v>
+      </c>
+      <c r="E38" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="F38">
+        <v>32891</v>
+      </c>
+      <c r="G38">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>82.1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>465.8</v>
+      </c>
+      <c r="D39" s="1">
+        <v>155.30000000000001</v>
+      </c>
+      <c r="E39" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="F39">
+        <v>36806</v>
+      </c>
+      <c r="G39">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="C40" s="1">
+        <v>453.4</v>
+      </c>
+      <c r="D40" s="1">
+        <v>189.9</v>
+      </c>
+      <c r="E40" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="F40">
+        <v>29597</v>
+      </c>
+      <c r="G40">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>74.3</v>
+      </c>
+      <c r="C41" s="1">
+        <v>457</v>
+      </c>
+      <c r="D41" s="1">
+        <v>190.4</v>
+      </c>
+      <c r="E41" s="1">
+        <v>9</v>
+      </c>
+      <c r="F41">
+        <v>33536</v>
+      </c>
+      <c r="G41">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>82</v>
+      </c>
+      <c r="C42" s="1">
+        <v>460</v>
+      </c>
+      <c r="D42" s="1">
+        <v>191.3</v>
+      </c>
+      <c r="E42" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="F42">
+        <v>37268</v>
+      </c>
+      <c r="G42">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>89.3</v>
+      </c>
+      <c r="C43" s="1">
+        <v>463.4</v>
+      </c>
+      <c r="D43" s="1">
+        <v>191.9</v>
+      </c>
+      <c r="E43" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="F43">
+        <v>41232</v>
+      </c>
+      <c r="G43">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>98.3</v>
+      </c>
+      <c r="C44" s="1">
+        <v>467.2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>192.8</v>
+      </c>
+      <c r="E44" s="1">
+        <v>11.4</v>
+      </c>
+      <c r="F44">
+        <v>459944</v>
+      </c>
+      <c r="G44">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>105.8</v>
+      </c>
+      <c r="C45" s="1">
+        <v>469.2</v>
+      </c>
+      <c r="D45" s="1">
+        <v>194</v>
+      </c>
+      <c r="E45" s="1">
+        <v>12.6</v>
+      </c>
+      <c r="F45">
+        <v>49090</v>
+      </c>
+      <c r="G45">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="C46" s="1">
+        <v>480.6</v>
+      </c>
+      <c r="D46" s="1">
+        <v>196.7</v>
+      </c>
+      <c r="E46" s="1">
+        <v>15.3</v>
+      </c>
+      <c r="F46">
+        <v>64058</v>
+      </c>
+      <c r="G46">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>161.4</v>
+      </c>
+      <c r="C47" s="1">
+        <v>492</v>
+      </c>
+      <c r="D47" s="1">
+        <v>199.4</v>
+      </c>
+      <c r="E47" s="1">
+        <v>18</v>
+      </c>
+      <c r="F47">
+        <v>7996</v>
+      </c>
+      <c r="G47">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>113</v>
+      </c>
+      <c r="C48" s="1">
+        <v>463</v>
+      </c>
+      <c r="D48" s="1">
+        <v>280</v>
+      </c>
+      <c r="E48" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="F48">
+        <v>56724</v>
+      </c>
+      <c r="G48">
+        <v>6338</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>123</v>
+      </c>
+      <c r="C49" s="1">
+        <v>467</v>
+      </c>
+      <c r="D49" s="1">
+        <v>282</v>
+      </c>
+      <c r="E49" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="F49">
+        <v>64820</v>
+      </c>
+      <c r="G49">
+        <v>7337</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>144</v>
+      </c>
+      <c r="C50" s="1">
+        <v>472</v>
+      </c>
+      <c r="D50" s="1">
+        <v>283</v>
+      </c>
+      <c r="E50" s="1">
+        <v>13.6</v>
+      </c>
+      <c r="F50">
+        <v>73727</v>
+      </c>
+      <c r="G50">
+        <v>8362</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>158</v>
+      </c>
+      <c r="C51" s="1">
+        <v>476</v>
+      </c>
+      <c r="D51" s="1">
+        <v>284</v>
+      </c>
+      <c r="E51" s="1">
+        <v>15</v>
+      </c>
+      <c r="F51">
+        <v>80756</v>
+      </c>
+      <c r="G51">
+        <v>9142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>177</v>
+      </c>
+      <c r="C52" s="1">
+        <v>482</v>
+      </c>
+      <c r="D52" s="1">
+        <v>286</v>
+      </c>
+      <c r="E52" s="1">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F52">
+        <v>92134</v>
+      </c>
+      <c r="G52">
+        <v>10511</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>193</v>
+      </c>
+      <c r="C53" s="1">
+        <v>489</v>
+      </c>
+      <c r="D53" s="1">
+        <v>283</v>
+      </c>
+      <c r="E53" s="1">
+        <v>17</v>
+      </c>
+      <c r="F53">
+        <v>103476</v>
+      </c>
+      <c r="G53">
+        <v>11545</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>213</v>
+      </c>
+      <c r="C54" s="1">
+        <v>495</v>
+      </c>
+      <c r="D54" s="1">
+        <v>285</v>
+      </c>
+      <c r="E54" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="F54">
+        <v>115446</v>
+      </c>
+      <c r="G54">
+        <v>12954</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>235</v>
+      </c>
+      <c r="C55" s="1">
+        <v>501</v>
+      </c>
+      <c r="D55" s="1">
+        <v>287</v>
+      </c>
+      <c r="E55" s="1">
+        <v>20.6</v>
+      </c>
+      <c r="F55">
+        <v>128452</v>
+      </c>
+      <c r="G55">
+        <v>14459</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>260</v>
+      </c>
+      <c r="C56" s="1">
+        <v>509</v>
+      </c>
+      <c r="D56" s="1">
+        <v>289</v>
+      </c>
+      <c r="E56" s="1">
+        <v>22.6</v>
+      </c>
+      <c r="F56">
+        <v>144803</v>
+      </c>
+      <c r="G56">
+        <v>16306</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>286</v>
+      </c>
+      <c r="C57" s="1">
+        <v>517</v>
+      </c>
+      <c r="D57" s="1">
+        <v>291</v>
+      </c>
+      <c r="E57" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="F57">
+        <v>162187</v>
+      </c>
+      <c r="G57">
+        <v>18297</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>315</v>
+      </c>
+      <c r="C58" s="1">
+        <v>525</v>
+      </c>
+      <c r="D58" s="1">
+        <v>293</v>
+      </c>
+      <c r="E58" s="1">
+        <v>26.9</v>
+      </c>
+      <c r="F58">
+        <v>180967</v>
+      </c>
+      <c r="G58">
+        <v>20414</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>65.7</v>
+      </c>
+      <c r="C59" s="1">
+        <v>524.70000000000005</v>
+      </c>
+      <c r="D59" s="1">
+        <v>165.1</v>
+      </c>
+      <c r="E59" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="F59">
+        <v>35028</v>
+      </c>
+      <c r="G59">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>74.7</v>
+      </c>
+      <c r="C60" s="1">
+        <v>529.1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>165.9</v>
+      </c>
+      <c r="E60" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F60">
+        <v>41058</v>
+      </c>
+      <c r="G60">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>84.8</v>
+      </c>
+      <c r="C61" s="1">
+        <v>534.9</v>
+      </c>
+      <c r="D61" s="1">
+        <v>166.5</v>
+      </c>
+      <c r="E61" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="F61">
+        <v>48631</v>
+      </c>
+      <c r="G61">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>82.2</v>
+      </c>
+      <c r="C62" s="1">
+        <v>528.29999999999995</v>
+      </c>
+      <c r="D62" s="1">
+        <v>208.8</v>
+      </c>
+      <c r="E62" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="F62">
+        <v>47539</v>
+      </c>
+      <c r="G62">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>92.1</v>
+      </c>
+      <c r="C63" s="1">
+        <v>533.1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>209.3</v>
+      </c>
+      <c r="E63" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="F63">
+        <v>55227</v>
+      </c>
+      <c r="G63">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>101</v>
+      </c>
+      <c r="C64" s="1">
+        <v>536.70000000000005</v>
+      </c>
+      <c r="D64" s="1">
+        <v>210</v>
+      </c>
+      <c r="E64" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="F64">
+        <v>61519</v>
+      </c>
+      <c r="G64">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>109</v>
+      </c>
+      <c r="C65" s="1">
+        <v>539.5</v>
+      </c>
+      <c r="D65" s="1">
+        <v>210.8</v>
+      </c>
+      <c r="E65" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="F65">
+        <v>66822</v>
+      </c>
+      <c r="G65">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>122</v>
+      </c>
+      <c r="C66" s="1">
+        <v>544.5</v>
+      </c>
+      <c r="D66" s="1">
+        <v>211.9</v>
+      </c>
+      <c r="E66" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="F66">
+        <v>76043</v>
+      </c>
+      <c r="G66">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>138.30000000000001</v>
+      </c>
+      <c r="C67" s="1">
+        <v>549.1</v>
+      </c>
+      <c r="D67" s="1">
+        <v>213.9</v>
+      </c>
+      <c r="E67" s="1">
+        <v>14.7</v>
+      </c>
+      <c r="F67">
+        <v>86088</v>
+      </c>
+      <c r="G67">
+        <v>3864</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>150.6</v>
+      </c>
+      <c r="C68" s="1">
+        <v>542.5</v>
+      </c>
+      <c r="D68" s="1">
+        <v>312</v>
+      </c>
+      <c r="E68" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="F68">
+        <v>100633</v>
+      </c>
+      <c r="G68">
+        <v>10285</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>165</v>
+      </c>
+      <c r="C69" s="1">
+        <v>546</v>
+      </c>
+      <c r="D69" s="1">
+        <v>313</v>
+      </c>
+      <c r="E69" s="1">
+        <v>14</v>
+      </c>
+      <c r="F69">
+        <v>110955</v>
+      </c>
+      <c r="G69">
+        <v>11359</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>181.5</v>
+      </c>
+      <c r="C70" s="1">
+        <v>550.70000000000005</v>
+      </c>
+      <c r="D70" s="1">
+        <v>314.5</v>
+      </c>
+      <c r="E70" s="1">
+        <v>15.2</v>
+      </c>
+      <c r="F70">
+        <v>123222</v>
+      </c>
+      <c r="G70">
+        <v>12667</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>196</v>
+      </c>
+      <c r="C71" s="1">
+        <v>554</v>
+      </c>
+      <c r="D71" s="1">
+        <v>316</v>
+      </c>
+      <c r="E71" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="F71">
+        <v>133993</v>
+      </c>
+      <c r="G71">
+        <v>13852</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>218.7</v>
+      </c>
+      <c r="C72" s="1">
+        <v>560.29999999999995</v>
+      </c>
+      <c r="D72" s="1">
+        <v>317.39999999999998</v>
+      </c>
+      <c r="E72" s="1">
+        <v>18.3</v>
+      </c>
+      <c r="F72">
+        <v>150976</v>
+      </c>
+      <c r="G72">
+        <v>15589</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>248</v>
+      </c>
+      <c r="C73" s="1">
+        <v>571</v>
+      </c>
+      <c r="D73" s="1">
+        <v>315</v>
+      </c>
+      <c r="E73" s="1">
+        <v>19</v>
+      </c>
+      <c r="F73">
+        <v>177499</v>
+      </c>
+      <c r="G73">
+        <v>18003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>273.2</v>
+      </c>
+      <c r="C74" s="1">
+        <v>577.1</v>
+      </c>
+      <c r="D74" s="1">
+        <v>320.2</v>
+      </c>
+      <c r="E74" s="1">
+        <v>21.1</v>
+      </c>
+      <c r="F74">
+        <v>198578</v>
+      </c>
+      <c r="G74">
+        <v>20615</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>81.8</v>
+      </c>
+      <c r="C75" s="1">
+        <v>598.6</v>
+      </c>
+      <c r="D75" s="1">
+        <v>177.9</v>
+      </c>
+      <c r="E75" s="1">
+        <v>10</v>
+      </c>
+      <c r="F75">
+        <v>57487</v>
+      </c>
+      <c r="G75">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>92.2</v>
+      </c>
+      <c r="C76" s="1">
+        <v>603</v>
+      </c>
+      <c r="D76" s="1">
+        <v>178.8</v>
+      </c>
+      <c r="E76" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="F76">
+        <v>66195</v>
+      </c>
+      <c r="G76">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>100.3</v>
+      </c>
+      <c r="C77" s="1">
+        <v>607.4</v>
+      </c>
+      <c r="D77" s="1">
+        <v>179.2</v>
+      </c>
+      <c r="E77" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="F77">
+        <v>74145</v>
+      </c>
+      <c r="G77">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>101.2</v>
+      </c>
+      <c r="C78" s="1">
+        <v>602.6</v>
+      </c>
+      <c r="D78" s="1">
+        <v>227.6</v>
+      </c>
+      <c r="E78" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="F78">
+        <v>77398</v>
+      </c>
+      <c r="G78">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>113</v>
+      </c>
+      <c r="C79" s="1">
+        <v>607.6</v>
+      </c>
+      <c r="D79" s="1">
+        <v>228.2</v>
+      </c>
+      <c r="E79" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="F79">
+        <v>88936</v>
+      </c>
+      <c r="G79">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>125.1</v>
+      </c>
+      <c r="C80" s="1">
+        <v>612.20000000000005</v>
+      </c>
+      <c r="D80" s="1">
+        <v>229</v>
+      </c>
+      <c r="E80" s="1">
+        <v>11.9</v>
+      </c>
+      <c r="F80">
+        <v>100228</v>
+      </c>
+      <c r="G80">
+        <v>3935</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>139.9</v>
+      </c>
+      <c r="C81" s="1">
+        <v>617.20000000000005</v>
+      </c>
+      <c r="D81" s="1">
+        <v>230.2</v>
+      </c>
+      <c r="E81" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="F81">
+        <v>113395</v>
+      </c>
+      <c r="G81">
+        <v>4509</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="C82" s="1">
+        <v>612.4</v>
+      </c>
+      <c r="D82" s="1">
+        <v>304.8</v>
+      </c>
+      <c r="E82" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="F82">
+        <v>126738</v>
+      </c>
+      <c r="G82">
+        <v>9309</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>179</v>
+      </c>
+      <c r="C83" s="1">
+        <v>620.20000000000005</v>
+      </c>
+      <c r="D83" s="1">
+        <v>307.10000000000002</v>
+      </c>
+      <c r="E83" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="F83">
+        <v>153886</v>
+      </c>
+      <c r="G83">
+        <v>11410</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>238.1</v>
+      </c>
+      <c r="C84" s="1">
+        <v>635.79999999999995</v>
+      </c>
+      <c r="D84" s="1">
+        <v>311.39999999999998</v>
+      </c>
+      <c r="E84" s="1">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F84">
+        <v>210333</v>
+      </c>
+      <c r="G84">
+        <v>15839</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>155</v>
+      </c>
+      <c r="C85" s="1">
+        <v>611</v>
+      </c>
+      <c r="D85" s="1">
+        <v>324</v>
+      </c>
+      <c r="E85" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="F85">
+        <v>130552</v>
+      </c>
+      <c r="G85">
+        <v>10785</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>174</v>
+      </c>
+      <c r="C86" s="1">
+        <v>616</v>
+      </c>
+      <c r="D86" s="1">
+        <v>325</v>
+      </c>
+      <c r="E86" s="1">
+        <v>14</v>
+      </c>
+      <c r="F86">
+        <v>148722</v>
+      </c>
+      <c r="G86">
+        <v>12376</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>195</v>
+      </c>
+      <c r="C87" s="1">
+        <v>622</v>
+      </c>
+      <c r="D87" s="1">
+        <v>327</v>
+      </c>
+      <c r="E87" s="1">
+        <v>15.4</v>
+      </c>
+      <c r="F87">
+        <v>169453</v>
+      </c>
+      <c r="G87">
+        <v>14242</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>217</v>
+      </c>
+      <c r="C88" s="1">
+        <v>628</v>
+      </c>
+      <c r="D88" s="1">
+        <v>328</v>
+      </c>
+      <c r="E88" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="F88">
+        <v>192362</v>
+      </c>
+      <c r="G88">
+        <v>16319</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>241</v>
+      </c>
+      <c r="C89" s="1">
+        <v>635</v>
+      </c>
+      <c r="D89" s="1">
+        <v>329</v>
+      </c>
+      <c r="E89" s="1">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="F89">
+        <v>216996</v>
+      </c>
+      <c r="G89">
+        <v>18433</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>262</v>
+      </c>
+      <c r="C90" s="1">
+        <v>641</v>
+      </c>
+      <c r="D90" s="1">
+        <v>327</v>
+      </c>
+      <c r="E90" s="1">
+        <v>19</v>
+      </c>
+      <c r="F90">
+        <v>237554</v>
+      </c>
+      <c r="G90">
+        <v>19854</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>285</v>
+      </c>
+      <c r="C91" s="1">
+        <v>647</v>
+      </c>
+      <c r="D91" s="1">
+        <v>329</v>
+      </c>
+      <c r="E91" s="1">
+        <v>20.6</v>
+      </c>
+      <c r="F91">
+        <v>262288</v>
+      </c>
+      <c r="G91">
+        <v>22069</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>307</v>
+      </c>
+      <c r="C92" s="1">
+        <v>653</v>
+      </c>
+      <c r="D92" s="1">
+        <v>330</v>
+      </c>
+      <c r="E92" s="1">
+        <v>22.1</v>
+      </c>
+      <c r="F92">
+        <v>285253</v>
+      </c>
+      <c r="G92">
+        <v>23958</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>341</v>
+      </c>
+      <c r="C93" s="1">
+        <v>661</v>
+      </c>
+      <c r="D93" s="1">
+        <v>333</v>
+      </c>
+      <c r="E93" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="F93">
+        <v>319846</v>
+      </c>
+      <c r="G93">
+        <v>27097</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>372</v>
+      </c>
+      <c r="C94" s="1">
+        <v>669</v>
+      </c>
+      <c r="D94" s="1">
+        <v>335</v>
+      </c>
+      <c r="E94" s="1">
+        <v>26.4</v>
+      </c>
+      <c r="F94">
+        <v>354794</v>
+      </c>
+      <c r="G94">
+        <v>30175</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>125.2</v>
+      </c>
+      <c r="C95" s="1">
+        <v>677.9</v>
+      </c>
+      <c r="D95" s="1">
+        <v>253</v>
+      </c>
+      <c r="E95" s="1">
+        <v>11.7</v>
+      </c>
+      <c r="F95">
+        <v>119448</v>
+      </c>
+      <c r="G95">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>140.1</v>
+      </c>
+      <c r="C96" s="1">
+        <v>683.5</v>
+      </c>
+      <c r="D96" s="1">
+        <v>253.7</v>
+      </c>
+      <c r="E96" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="F96">
+        <v>137723</v>
+      </c>
+      <c r="G96">
+        <v>5186</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>152.4</v>
+      </c>
+      <c r="C97" s="1">
+        <v>687.5</v>
+      </c>
+      <c r="D97" s="1">
+        <v>254.5</v>
+      </c>
+      <c r="E97" s="1">
+        <v>13.2</v>
+      </c>
+      <c r="F97">
+        <v>151811</v>
+      </c>
+      <c r="G97">
+        <v>5786</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>170.2</v>
+      </c>
+      <c r="C98" s="1">
+        <v>692.9</v>
+      </c>
+      <c r="D98" s="1">
+        <v>255.8</v>
+      </c>
+      <c r="E98" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="F98">
+        <v>171782</v>
+      </c>
+      <c r="G98">
+        <v>6633</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>192.6</v>
+      </c>
+      <c r="C99" s="1">
+        <v>702</v>
+      </c>
+      <c r="D99" s="1">
+        <v>254</v>
+      </c>
+      <c r="E99" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="F99">
+        <v>199444</v>
+      </c>
+      <c r="G99">
+        <v>7646</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>133.9</v>
+      </c>
+      <c r="C100" s="1">
+        <v>750</v>
+      </c>
+      <c r="D100" s="1">
+        <v>264.39999999999998</v>
+      </c>
+      <c r="E100" s="1">
+        <v>12</v>
+      </c>
+      <c r="F100">
+        <v>152061</v>
+      </c>
+      <c r="G100">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>146.9</v>
+      </c>
+      <c r="C101" s="1">
+        <v>754</v>
+      </c>
+      <c r="D101" s="1">
+        <v>265.2</v>
+      </c>
+      <c r="E101" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="F101">
+        <v>169871</v>
+      </c>
+      <c r="G101">
+        <v>5457</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>161</v>
+      </c>
+      <c r="C102" s="1">
+        <v>758</v>
+      </c>
+      <c r="D102" s="1">
+        <v>266</v>
+      </c>
+      <c r="E102" s="1">
+        <v>13.8</v>
+      </c>
+      <c r="F102">
+        <v>187252</v>
+      </c>
+      <c r="G102">
+        <v>6075</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>173</v>
+      </c>
+      <c r="C103" s="1">
+        <v>762.2</v>
+      </c>
+      <c r="D103" s="1">
+        <v>266.7</v>
+      </c>
+      <c r="E103" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="F103">
+        <v>206651</v>
+      </c>
+      <c r="G103">
+        <v>6852</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>185</v>
+      </c>
+      <c r="C104" s="1">
+        <v>766</v>
+      </c>
+      <c r="D104" s="1">
+        <v>267</v>
+      </c>
+      <c r="E104" s="1">
+        <v>14.9</v>
+      </c>
+      <c r="F104">
+        <v>224146</v>
+      </c>
+      <c r="G104">
+        <v>7512</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>196.8</v>
+      </c>
+      <c r="C105" s="1">
+        <v>769.8</v>
+      </c>
+      <c r="D105" s="1">
+        <v>268</v>
+      </c>
+      <c r="E105" s="1">
+        <v>15.6</v>
+      </c>
+      <c r="F105">
+        <v>241326</v>
+      </c>
+      <c r="G105">
+        <v>8177</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>175.9</v>
+      </c>
+      <c r="C106" s="1">
+        <v>834.9</v>
+      </c>
+      <c r="D106" s="1">
+        <v>291.7</v>
+      </c>
+      <c r="E106" s="1">
+        <v>14</v>
+      </c>
+      <c r="F106">
+        <v>247120</v>
+      </c>
+      <c r="G106">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>193.8</v>
+      </c>
+      <c r="C107" s="1">
+        <v>840.7</v>
+      </c>
+      <c r="D107" s="1">
+        <v>292.39999999999998</v>
+      </c>
+      <c r="E107" s="1">
+        <v>14.7</v>
+      </c>
+      <c r="F107">
+        <v>280274</v>
+      </c>
+      <c r="G107">
+        <v>9068</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>210</v>
+      </c>
+      <c r="C108" s="1">
+        <v>846</v>
+      </c>
+      <c r="D108" s="1">
+        <v>293</v>
+      </c>
+      <c r="E108" s="1">
+        <v>15.4</v>
+      </c>
+      <c r="F108">
+        <v>311719</v>
+      </c>
+      <c r="G108">
+        <v>10259</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>226.5</v>
+      </c>
+      <c r="C109" s="1">
+        <v>850.9</v>
+      </c>
+      <c r="D109" s="1">
+        <v>293.8</v>
+      </c>
+      <c r="E109" s="1">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F109">
+        <v>340802</v>
+      </c>
+      <c r="G109">
+        <v>11361</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>250.7</v>
+      </c>
+      <c r="C110" s="1">
+        <v>859</v>
+      </c>
+      <c r="D110" s="1">
+        <v>292.10000000000002</v>
+      </c>
+      <c r="E110" s="1">
+        <v>17</v>
+      </c>
+      <c r="F110">
+        <v>387599</v>
+      </c>
+      <c r="G110">
+        <v>12916</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>200.9</v>
+      </c>
+      <c r="C111" s="1">
+        <v>903</v>
+      </c>
+      <c r="D111" s="1">
+        <v>303.3</v>
+      </c>
+      <c r="E111" s="1">
+        <v>15.1</v>
+      </c>
+      <c r="F111">
+        <v>325254</v>
+      </c>
+      <c r="G111">
+        <v>9423</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>224.2</v>
+      </c>
+      <c r="C112" s="1">
+        <v>910.4</v>
+      </c>
+      <c r="D112" s="1">
+        <v>304.10000000000002</v>
+      </c>
+      <c r="E112" s="1">
+        <v>15.9</v>
+      </c>
+      <c r="F112">
+        <v>376414</v>
+      </c>
+      <c r="G112">
+        <v>11236</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>238.3</v>
+      </c>
+      <c r="C113" s="1">
+        <v>915</v>
+      </c>
+      <c r="D113" s="1">
+        <v>305</v>
+      </c>
+      <c r="E113" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="F113">
+        <v>406472</v>
+      </c>
+      <c r="G113">
+        <v>12285</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>253.4</v>
+      </c>
+      <c r="C114" s="1">
+        <v>918.4</v>
+      </c>
+      <c r="D114" s="1">
+        <v>305.5</v>
+      </c>
+      <c r="E114" s="1">
+        <v>17.3</v>
+      </c>
+      <c r="F114">
+        <v>436305</v>
+      </c>
+      <c r="G114">
+        <v>13301</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>271</v>
+      </c>
+      <c r="C115" s="1">
+        <v>923</v>
+      </c>
+      <c r="D115" s="1">
+        <v>307</v>
+      </c>
+      <c r="E115" s="1">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F115">
+        <v>471633</v>
+      </c>
+      <c r="G115">
+        <v>14518</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>289.10000000000002</v>
+      </c>
+      <c r="C116" s="1">
+        <v>926.6</v>
+      </c>
+      <c r="D116" s="1">
+        <v>307.7</v>
+      </c>
+      <c r="E116" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="F116">
+        <v>504187</v>
+      </c>
+      <c r="G116">
+        <v>15597</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>313</v>
+      </c>
+      <c r="C117" s="1">
+        <v>932</v>
+      </c>
+      <c r="D117" s="1">
+        <v>309</v>
+      </c>
+      <c r="E117" s="1">
+        <v>21.1</v>
+      </c>
+      <c r="F117">
+        <v>548297</v>
+      </c>
+      <c r="G117">
+        <v>17039</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>345.1</v>
+      </c>
+      <c r="C118" s="1">
+        <v>943</v>
+      </c>
+      <c r="D118" s="1">
+        <v>308</v>
+      </c>
+      <c r="E118" s="1">
+        <v>22.1</v>
+      </c>
+      <c r="F118">
+        <v>625645</v>
+      </c>
+      <c r="G118">
+        <v>19515</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>381.5</v>
+      </c>
+      <c r="C119" s="1">
+        <v>950.7</v>
+      </c>
+      <c r="D119" s="1">
+        <v>310.3</v>
+      </c>
+      <c r="E119" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="F119">
+        <v>697408</v>
+      </c>
+      <c r="G119">
+        <v>21975</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>343.3</v>
+      </c>
+      <c r="C120" s="1">
+        <v>911.8</v>
+      </c>
+      <c r="D120" s="1">
+        <v>418.5</v>
+      </c>
+      <c r="E120" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F120">
+        <v>625780</v>
+      </c>
+      <c r="G120">
+        <v>39156</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>365</v>
+      </c>
+      <c r="C121" s="1">
+        <v>916</v>
+      </c>
+      <c r="D121" s="1">
+        <v>419.4</v>
+      </c>
+      <c r="E121" s="1">
+        <v>20.3</v>
+      </c>
+      <c r="F121">
+        <v>671104</v>
+      </c>
+      <c r="G121">
+        <v>42245</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>388</v>
+      </c>
+      <c r="C122" s="1">
+        <v>921</v>
+      </c>
+      <c r="D122" s="1">
+        <v>420.5</v>
+      </c>
+      <c r="E122" s="1">
+        <v>21.4</v>
+      </c>
+      <c r="F122">
+        <v>719635</v>
+      </c>
+      <c r="G122">
+        <v>45438</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>222</v>
+      </c>
+      <c r="C123" s="1">
+        <v>970.3</v>
+      </c>
+      <c r="D123" s="1">
+        <v>300</v>
+      </c>
+      <c r="E123" s="1">
+        <v>16</v>
+      </c>
+      <c r="F123">
+        <v>407961</v>
+      </c>
+      <c r="G123">
+        <v>9546</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>248.7</v>
+      </c>
+      <c r="C124" s="1">
+        <v>980.1</v>
+      </c>
+      <c r="D124" s="1">
+        <v>300</v>
+      </c>
+      <c r="E124" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="F124">
+        <v>481192</v>
+      </c>
+      <c r="G124">
+        <v>11754</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>272.3</v>
+      </c>
+      <c r="C125" s="1">
+        <v>990.1</v>
+      </c>
+      <c r="D125" s="1">
+        <v>300</v>
+      </c>
+      <c r="E125" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="F125">
+        <v>553974</v>
+      </c>
+      <c r="G125">
+        <v>14004</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>314.3</v>
+      </c>
+      <c r="C126" s="1">
+        <v>999.9</v>
+      </c>
+      <c r="D126" s="1">
+        <v>300</v>
+      </c>
+      <c r="E126" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F126">
+        <v>644063</v>
+      </c>
+      <c r="G126">
+        <v>16232</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>349.4</v>
+      </c>
+      <c r="C127" s="1">
+        <v>1008</v>
+      </c>
+      <c r="D127" s="1">
+        <v>302</v>
+      </c>
+      <c r="E127" s="1">
+        <v>21.1</v>
+      </c>
+      <c r="F127">
+        <v>722965</v>
+      </c>
+      <c r="G127">
+        <v>18460</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>392.7</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1015.9</v>
+      </c>
+      <c r="D128" s="1">
+        <v>303</v>
+      </c>
+      <c r="E128" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="F128">
+        <v>807503</v>
+      </c>
+      <c r="G128">
+        <v>20496</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>437</v>
+      </c>
+      <c r="C129" s="1">
+        <v>1026.0999999999999</v>
+      </c>
+      <c r="D129" s="1">
+        <v>305.39999999999998</v>
+      </c>
+      <c r="E129" s="1">
+        <v>26.9</v>
+      </c>
+      <c r="F129">
+        <v>910322</v>
+      </c>
+      <c r="G129">
+        <v>23447</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>486.7</v>
+      </c>
+      <c r="C130" s="1">
+        <v>1036.3</v>
+      </c>
+      <c r="D130" s="1">
+        <v>308.5</v>
+      </c>
+      <c r="E130" s="1">
         <v>30</v>
       </c>
       <c r="F130">

--- a/Beam_specifications.xlsx
+++ b/Beam_specifications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliecarey/Documents/GitHub/DP5_Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB69A3F0-9B93-E64E-9053-5D0519EEA2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF219A2-17B0-1A4D-B9BF-415834AF7D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="500" windowWidth="27520" windowHeight="16940" activeTab="2" xr2:uid="{FE6E7D45-D27E-9547-9645-A7EB7BB78B66}"/>
+    <workbookView xWindow="360" yWindow="500" windowWidth="27520" windowHeight="16940" activeTab="1" xr2:uid="{FE6E7D45-D27E-9547-9645-A7EB7BB78B66}"/>
   </bookViews>
   <sheets>
     <sheet name="I-beam" sheetId="1" r:id="rId1"/>
@@ -3446,8 +3446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B3352E-666A-F149-B9A7-6607EA010E78}">
   <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6456,7 +6456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC48DA29-5814-AB47-A398-8F38A2082D7B}">
   <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
